--- a/data/melon/melonTicket.xlsx
+++ b/data/melon/melonTicket.xlsx
@@ -61,348 +61,348 @@
     <t>2025 DOH KYUNG SOO ASIA CONCERT TOUR 〈DO it! in Seoul〉</t>
   </si>
   <si>
+    <t>2025 SF9 LIVE FANTASY #5 LOVE DAWN</t>
+  </si>
+  <si>
+    <t>제18회 부산항축제 with MyK FESTA</t>
+  </si>
+  <si>
+    <t>사운드 플래닛 페스티벌 2025 - 일반 티켓</t>
+  </si>
+  <si>
+    <t>2025 바밍타이거 단독공연 〈비둘기와 플라스틱〉</t>
+  </si>
+  <si>
     <t>2025 ONEWE WORLD TOUR ‘O! NEW E!volution Ⅳ’ ENCORE</t>
   </si>
   <si>
-    <t>2025 바밍타이거 단독공연 〈비둘기와 플라스틱〉</t>
-  </si>
-  <si>
-    <t>2025 SF9 LIVE FANTASY #5 LOVE DAWN</t>
-  </si>
-  <si>
-    <t>사운드 플래닛 페스티벌 2025 - 일반 티켓</t>
-  </si>
-  <si>
-    <t>제18회 부산항축제 with MyK FESTA</t>
+    <t>제17회 서울재즈페스티벌 2025</t>
   </si>
   <si>
     <t>2025 BANG YONGGUK CONCERT [MONOLOGUE]</t>
   </si>
   <si>
+    <t>2025 대구힙합페스티벌</t>
+  </si>
+  <si>
+    <t>SHINee WORLD Ⅶ [E.S.S.A.Y] (Every Stage Shines Around You)</t>
+  </si>
+  <si>
+    <t>2025 NCT DREAM TOUR 〈THE DREAM SHOW 4 : DREAM THE FUTURE〉</t>
+  </si>
+  <si>
+    <t>워터밤 서울 2025 (WATERBOMB SEOUL 2025)</t>
+  </si>
+  <si>
     <t>정성하 단독콘서트 ‘그늘’ : 롤링 30주년 기념 공연</t>
   </si>
   <si>
-    <t>SHINee WORLD Ⅶ [E.S.S.A.Y] (Every Stage Shines Around You)</t>
-  </si>
-  <si>
-    <t>제17회 서울재즈페스티벌 2025</t>
+    <t>2025 NCT DREAM FANMEETING 〈DREAM QUEST〉</t>
+  </si>
+  <si>
+    <t>현대카드 Curated 99 Knxwledge &amp; Mndsgn</t>
   </si>
   <si>
     <t>2025 Jay Park World Tour [Serenades &amp; Body Rolls]</t>
   </si>
   <si>
-    <t>워터밤 서울 2025 (WATERBOMB SEOUL 2025)</t>
-  </si>
-  <si>
-    <t>2025 대구힙합페스티벌</t>
+    <t>2025 이젤(EJel) 소극장 콘서트 “Zip(집) : Blossie Garden”</t>
+  </si>
+  <si>
+    <t>시소 EP 발매 단독콘서트 __에게.</t>
+  </si>
+  <si>
+    <t>MEETING ROOM 001 : 사뮈, 지윤해, Enfants</t>
+  </si>
+  <si>
+    <t>SOUNDBERRY FESTA’ 25</t>
+  </si>
+  <si>
+    <t>윤종신 전국투어 콘서트 ‘그때’ - 용인</t>
+  </si>
+  <si>
+    <t>낯선 섬</t>
+  </si>
+  <si>
+    <t>먼데이프로젝트 IN 라이브클럽 [유령서점 단독 콘서트]</t>
+  </si>
+  <si>
+    <t>12BH 단독공연 “Learn To Love live in Seoul”</t>
+  </si>
+  <si>
+    <t>먼데이프로젝트 시즌8 [신윤수 앨범 발매 단독 콘서트 “Wherever”]</t>
+  </si>
+  <si>
+    <t>TONE STUDIO LIVE 〈손을모아(sonlmor)〉</t>
+  </si>
+  <si>
+    <t>양치기소년단 &amp; 리프(LIF) 콘서트 : 롤링 30주년 기념 공연</t>
+  </si>
+  <si>
+    <t>윤종신 전국투어 콘서트 ‘그때’ - 서울</t>
+  </si>
+  <si>
+    <t>진민호 단독콘서트 ‘회귀’ : 롤링 30주년 기념 공연</t>
+  </si>
+  <si>
+    <t>2025 DOYOUNG CONCERT [ Doors ]</t>
+  </si>
+  <si>
+    <t>UNXL(언오피셜) 2nd EP 발매 기념 단독 공연 “Be With You”</t>
+  </si>
+  <si>
+    <t>정밀아 단독공연 〈초여름〉</t>
+  </si>
+  <si>
+    <t>RYE 단독 공연 ‘Untitled Youth’</t>
+  </si>
+  <si>
+    <t>뮤직 코멘터리 : Talkback #6 ‘paulkyte(폴카이트)’</t>
+  </si>
+  <si>
+    <t>우리가 만든 음악섬</t>
+  </si>
+  <si>
+    <t>2025 UmYull 2nd Concert [Wishes of The Youth]</t>
+  </si>
+  <si>
+    <t>Paloalto 단독콘서트 ‘JAZZHOP’ : 롤링 30주년 기념 공연</t>
+  </si>
+  <si>
+    <t>PEAK FESTIVAL 2025</t>
+  </si>
+  <si>
+    <t>비공정 단독 콘서트 〈EXIT CODE: B〉</t>
+  </si>
+  <si>
+    <t>티카콘(TIKACON) : 투데이올드스니커즈</t>
+  </si>
+  <si>
+    <t>블랙홀 단독콘서트 ‘블랙홀에 빠지다’ : 롤링 30주년 기념 공연</t>
+  </si>
+  <si>
+    <t>2025 IRENE &amp; SEULGI Concert Tour [ BALANCE ] in SEOUL</t>
+  </si>
+  <si>
+    <t>오왠의 ‘Sweet Dreams : 그대로’</t>
+  </si>
+  <si>
+    <t>윤종신 전국투어 콘서트 ‘그때’ - 부산</t>
+  </si>
+  <si>
+    <t>wowsanrecord 1st brand concert [울다가 웃으면]</t>
+  </si>
+  <si>
+    <t>브로큰 발렌타인 단독콘서트 ‘Please don’t fall’ : 롤링30주년 기념공연</t>
+  </si>
+  <si>
+    <t>RSS Theater</t>
+  </si>
+  <si>
+    <t>DOLTANG World Tour #12, Seoul (돌아온탕자들 1집 ‘Invisible Worker’ 쇼케이스)</t>
+  </si>
+  <si>
+    <t>2025 유발이 단독공연 ‘그녀의 일기장을 훔쳐봐주세요’</t>
+  </si>
+  <si>
+    <t>극동아시아타이거즈 전국투어〈호랑이 소리를 찾아서〉- 춘천</t>
+  </si>
+  <si>
+    <t>METAL DAY 연합콘서트 ‘The Steel League’ : 롤링 30주년 기념 공연</t>
+  </si>
+  <si>
+    <t>릴콘 : Sun The Lily, Luca minor [OUR NIGHT IS HERE] Release concert</t>
+  </si>
+  <si>
+    <t>홈존의 집들이 vol.4 “작업실”</t>
+  </si>
+  <si>
+    <t>먼데이프로젝트 시즌8 My Universe [IZYKITE(이지카이트) 단독 콘서트]</t>
+  </si>
+  <si>
+    <t>두번째달 단독콘서트 ‘내 인생의 BGM ’ : 롤링 30주년 기념 공연</t>
+  </si>
+  <si>
+    <t>2025 타임캡슐 슈퍼콘서트 in 인천</t>
+  </si>
+  <si>
+    <t>오랜만입니다, 데카당입니다.</t>
+  </si>
+  <si>
+    <t>토스, 머니 코드 콘서트 : Out of 방구석</t>
+  </si>
+  <si>
+    <t>AoB Presents #2 : GO..GO..GHOST?!</t>
+  </si>
+  <si>
+    <t>[대구] 2025 브로콜리너마저 클럽 투어 - 매일 새롭게 태어나는 꿈  #4 대구</t>
+  </si>
+  <si>
+    <t>도유카 단독 콘서트 Vol.2 2025</t>
+  </si>
+  <si>
+    <t>what did sagong find at home? : orange minnow</t>
+  </si>
+  <si>
+    <t>신승은 싱글 ‘잘못된 기도’ 발매 공연 : 롤링30주년 기념공연</t>
+  </si>
+  <si>
+    <t>먼데이프로젝트 시즌8 몽니 단독 콘서트 [몽니’s 바캉스]</t>
+  </si>
+  <si>
+    <t>중식이밴드 대도시 클럽 투어 - 대전</t>
+  </si>
+  <si>
+    <t>현대카드 Curated 98 ATARAYO</t>
+  </si>
+  <si>
+    <t>극동아시아타이거즈 전국투어〈호랑이 소리를 찾아서〉- 부산</t>
+  </si>
+  <si>
+    <t>중식이밴드 대도시 클럽 투어 - 광주</t>
+  </si>
+  <si>
+    <t>2025 Pidalso Solo Concert</t>
+  </si>
+  <si>
+    <t>수민&amp;슬롬 on Sync Next 25</t>
+  </si>
+  <si>
+    <t>신해경 단독 공연 ‘꽃이 피는 계절’ : 부산</t>
+  </si>
+  <si>
+    <t>먼데이프로젝트 시즌8 Try Again [엔분의일(1/N) 단독 콘서트]</t>
+  </si>
+  <si>
+    <t>먼데이프로젝트 시즌8 Try Again [더베인 단독 콘서트]</t>
+  </si>
+  <si>
+    <t>먼데이프로젝트 시즌8 Try Again [중식이밴드 단독 콘서트]</t>
+  </si>
+  <si>
+    <t>dsel 단독콘서트 ‘운칠기삼’ : 롤링 30주년 기념 공연</t>
+  </si>
+  <si>
+    <t>Leaveourtears ASIA TOUR in BUSAN</t>
+  </si>
+  <si>
+    <t>컬러풀 스테이지 #13 먼데이 오프 위드 블루지 &amp; 컨파인드 화이트</t>
+  </si>
+  <si>
+    <t>키위 EP “Vertigo” 발매기념 단독공연 : Where are we headed now?</t>
+  </si>
+  <si>
+    <t>TONE STUDIO LIVE 〈홍크(HONK)〉</t>
+  </si>
+  <si>
+    <t>킹스 오브 컨비니언스 B sides tour</t>
+  </si>
+  <si>
+    <t>109 여름 잔향 : summer scent</t>
+  </si>
+  <si>
+    <t>제이통 on Sync Next 25</t>
+  </si>
+  <si>
+    <t>KIRK FLETCHER : The Master in Korea</t>
+  </si>
+  <si>
+    <t>live SUM 2025: 다양성, 루아멜</t>
+  </si>
+  <si>
+    <t>[창원] 2025 브로콜리너마저 클럽 투어 - 매일 새롭게 태어나는 꿈  #5 창원</t>
+  </si>
+  <si>
+    <t>마인드유 단독콘서트 ‘다시, 봄’ : 롤링 30주년 기념 공연</t>
+  </si>
+  <si>
+    <t>LUCK LUCK FESTIVAL</t>
+  </si>
+  <si>
+    <t>제17회 서울재즈페스티벌 2025 블라인드</t>
+  </si>
+  <si>
+    <t>봄바람에 취한다</t>
+  </si>
+  <si>
+    <t>참깨와 솜사탕 단독 콘서트 ‘다시, 솜사탕’</t>
+  </si>
+  <si>
+    <t>먼데이프로젝트 시즌8 Our Universe [히미츠 단독 콘서트]</t>
+  </si>
+  <si>
+    <t>이상준쇼</t>
+  </si>
+  <si>
+    <t>먼데이프로젝트 시즌8 [Laundria : 기쿠하시 감정수집 프로젝트]</t>
+  </si>
+  <si>
+    <t>B2S IS BACK</t>
   </si>
   <si>
     <t>2025 부산원아시아페스티벌(BOF)</t>
   </si>
   <si>
-    <t>현대카드 Curated 99 Knxwledge &amp; Mndsgn</t>
-  </si>
-  <si>
-    <t>2025 NCT DREAM TOUR 〈THE DREAM SHOW 4 : DREAM THE FUTURE〉</t>
-  </si>
-  <si>
-    <t>2025 이젤(EJel) 소극장 콘서트 “Zip(집) : Blossie Garden”</t>
-  </si>
-  <si>
-    <t>시소 EP 발매 단독콘서트 __에게.</t>
-  </si>
-  <si>
-    <t>MEETING ROOM 001 : 사뮈, 지윤해, Enfants</t>
-  </si>
-  <si>
-    <t>윤종신 전국투어 콘서트 ‘그때’ - 용인</t>
-  </si>
-  <si>
-    <t>TONE STUDIO LIVE 〈손을모아(sonlmor)〉</t>
-  </si>
-  <si>
-    <t>Paloalto 단독콘서트 ‘JAZZHOP’ : 롤링 30주년 기념 공연</t>
-  </si>
-  <si>
-    <t>정밀아 단독공연 〈초여름〉</t>
-  </si>
-  <si>
-    <t>먼데이프로젝트 시즌8 [신윤수 앨범 발매 단독 콘서트 “Wherever”]</t>
-  </si>
-  <si>
-    <t>양치기소년단 &amp; 리프(LIF) 콘서트 : 롤링 30주년 기념 공연</t>
-  </si>
-  <si>
-    <t>SOUNDBERRY FESTA’ 25</t>
-  </si>
-  <si>
-    <t>먼데이프로젝트 IN 라이브클럽 [유령서점 단독 콘서트]</t>
-  </si>
-  <si>
-    <t>윤종신 전국투어 콘서트 ‘그때’ - 서울</t>
-  </si>
-  <si>
-    <t>진민호 단독콘서트 ‘회귀’ : 롤링 30주년 기념 공연</t>
-  </si>
-  <si>
-    <t>PEAK FESTIVAL 2025</t>
-  </si>
-  <si>
-    <t>12BH 단독공연 “Learn To Love live in Seoul”</t>
-  </si>
-  <si>
-    <t>2025 UmYull 2nd Concert [Wishes of The Youth]</t>
-  </si>
-  <si>
-    <t>UNXL(언오피셜) 2nd EP 발매 기념 단독 공연 “Be With You”</t>
-  </si>
-  <si>
-    <t>브로큰 발렌타인 단독콘서트 ‘Please don’t fall’ : 롤링30주년 기념공연</t>
-  </si>
-  <si>
-    <t>RSS Theater</t>
-  </si>
-  <si>
-    <t>RYE 단독 공연 ‘Untitled Youth’</t>
-  </si>
-  <si>
-    <t>2025 DOYOUNG CONCERT [ Doors ]</t>
-  </si>
-  <si>
-    <t>비공정 단독 콘서트 〈EXIT CODE: B〉</t>
-  </si>
-  <si>
-    <t>우리가 만든 음악섬</t>
-  </si>
-  <si>
-    <t>DOLTANG World Tour #12, Seoul (돌아온탕자들 1집 ‘Invisible Worker’ 쇼케이스)</t>
-  </si>
-  <si>
-    <t>2025 유발이 단독공연 ‘그녀의 일기장을 훔쳐봐주세요’</t>
-  </si>
-  <si>
-    <t>윤종신 전국투어 콘서트 ‘그때’ - 부산</t>
-  </si>
-  <si>
-    <t>METAL DAY 연합콘서트 ‘The Steel League’ : 롤링 30주년 기념 공연</t>
-  </si>
-  <si>
-    <t>낯선 섬</t>
-  </si>
-  <si>
-    <t>극동아시아타이거즈 전국투어〈호랑이 소리를 찾아서〉- 춘천</t>
-  </si>
-  <si>
-    <t>오왠의 ‘Sweet Dreams : 그대로’</t>
-  </si>
-  <si>
-    <t>홈존의 집들이 vol.4 “작업실”</t>
-  </si>
-  <si>
-    <t>티카콘(TIKACON) : 투데이올드스니커즈</t>
-  </si>
-  <si>
-    <t>블랙홀 단독콘서트 ‘블랙홀에 빠지다’ : 롤링 30주년 기념 공연</t>
-  </si>
-  <si>
-    <t>두번째달 단독콘서트 ‘내 인생의 BGM ’ : 롤링 30주년 기념 공연</t>
-  </si>
-  <si>
-    <t>먼데이프로젝트 시즌8 몽니 단독 콘서트 [몽니’s 바캉스]</t>
-  </si>
-  <si>
-    <t>2025 타임캡슐 슈퍼콘서트 in 인천</t>
-  </si>
-  <si>
-    <t>신승은 싱글 ‘잘못된 기도’ 발매 공연 : 롤링30주년 기념공연</t>
-  </si>
-  <si>
-    <t>중식이밴드 대도시 클럽 투어 - 광주</t>
-  </si>
-  <si>
-    <t>오랜만입니다, 데카당입니다.</t>
-  </si>
-  <si>
-    <t>먼데이프로젝트 시즌8 Try Again [엔분의일(1/N) 단독 콘서트]</t>
-  </si>
-  <si>
-    <t>릴콘 : Sun The Lily, Luca minor [OUR NIGHT IS HERE] Release concert</t>
-  </si>
-  <si>
-    <t>먼데이프로젝트 시즌8 Try Again [중식이밴드 단독 콘서트]</t>
-  </si>
-  <si>
-    <t>현대카드 Curated 98 ATARAYO</t>
-  </si>
-  <si>
-    <t>먼데이프로젝트 시즌8 My Universe [IZYKITE(이지카이트) 단독 콘서트]</t>
-  </si>
-  <si>
-    <t>킹스 오브 컨비니언스 B sides tour</t>
-  </si>
-  <si>
-    <t>B2S IS BACK</t>
-  </si>
-  <si>
-    <t>먼데이프로젝트 시즌8 Our Universe [히미츠 단독 콘서트]</t>
-  </si>
-  <si>
-    <t>2025 Pidalso Solo Concert</t>
-  </si>
-  <si>
-    <t>중식이밴드 대도시 클럽 투어 - 대전</t>
-  </si>
-  <si>
-    <t>what did sagong find at home? : orange minnow</t>
-  </si>
-  <si>
-    <t>뮤직 코멘터리 : Talkback #6 ‘paulkyte(폴카이트)’</t>
-  </si>
-  <si>
-    <t>dsel 단독콘서트 ‘운칠기삼’ : 롤링 30주년 기념 공연</t>
-  </si>
-  <si>
-    <t>참깨와 솜사탕 단독 콘서트 ‘다시, 솜사탕’</t>
-  </si>
-  <si>
-    <t>109 여름 잔향 : summer scent</t>
-  </si>
-  <si>
-    <t>수민&amp;슬롬 on Sync Next 25</t>
+    <t>DMZ 피스트레인 뮤직 페스티벌 2025</t>
+  </si>
+  <si>
+    <t>김승주 단독 콘서트 ‘HINT II’</t>
+  </si>
+  <si>
+    <t>All Day, JAZZ SHOW! (올데이, 재즈쇼!)</t>
+  </si>
+  <si>
+    <t>먼데이프로젝트 IN 라이브클럽 [담담 단독콘서트]</t>
+  </si>
+  <si>
+    <t>Shinsei Kamattechan Live in Seoul</t>
+  </si>
+  <si>
+    <t>먼데이프로젝트 IN 라이브클럽 [MEN AND THEM 단독콘서트]</t>
+  </si>
+  <si>
+    <t>문없는집 단독공연 〈타임캡슐 vol. 2〉</t>
+  </si>
+  <si>
+    <t>중식이밴드 대도시 클럽 투어 - 부산</t>
+  </si>
+  <si>
+    <t>2025 YOO YOUNG JAE FAN MEETING ‘游泳:유영’</t>
+  </si>
+  <si>
+    <t>베리코이버니 단독콘서트 ‘Dream Hacker’ : 롤링 30주년 기념 공연</t>
+  </si>
+  <si>
+    <t>디어클라우드 단독콘서트 ‘한 여름밤의 숨’ : 롤링 30주년 기념 공연</t>
+  </si>
+  <si>
+    <t>프랭클리 단독 콘서트 ‘SUMMER BREAK’</t>
+  </si>
+  <si>
+    <t>켄 (KEN) 단독콘서트 ‘시나브로’ : 롤링 30주년 기념 공연</t>
+  </si>
+  <si>
+    <t>루시드폴, 정마리, 부지현 on Sync Next 25</t>
+  </si>
+  <si>
+    <t>LET ME KNOW LIVE TOUR 2025 Nostalgic Modern Ⅲ in Seoul</t>
+  </si>
+  <si>
+    <t>제이크 첫 단독 내한공연 JVKE LIVE IN SEOUL</t>
+  </si>
+  <si>
+    <t>문상훈과 빠더너스 on Sync Next 25</t>
+  </si>
+  <si>
+    <t>벌트vurt., 업체eobchae on Sync Next 25</t>
+  </si>
+  <si>
+    <t>사운드 플래닛 페스티벌 2025 - 얼리버드 티켓</t>
   </si>
   <si>
     <t>zunhozoon (2016-2018) 추가공연</t>
   </si>
   <si>
-    <t>Leaveourtears ASIA TOUR in BUSAN</t>
-  </si>
-  <si>
-    <t>LET ME KNOW LIVE TOUR 2025 Nostalgic Modern Ⅲ in Seoul</t>
-  </si>
-  <si>
-    <t>[대구] 2025 브로콜리너마저 클럽 투어 - 매일 새롭게 태어나는 꿈  #4 대구</t>
-  </si>
-  <si>
-    <t>중식이밴드 대도시 클럽 투어 - 부산</t>
-  </si>
-  <si>
-    <t>신해경 단독 공연 ‘꽃이 피는 계절’ : 부산</t>
-  </si>
-  <si>
-    <t>컬러풀 스테이지 #13 먼데이 오프 위드 블루지 &amp; 컨파인드 화이트</t>
-  </si>
-  <si>
-    <t>먼데이프로젝트 시즌8 Try Again [더베인 단독 콘서트]</t>
-  </si>
-  <si>
-    <t>wowsanrecord 1st brand concert [울다가 웃으면]</t>
-  </si>
-  <si>
-    <t>키위 EP “Vertigo” 발매기념 단독공연 : Where are we headed now?</t>
-  </si>
-  <si>
-    <t>[창원] 2025 브로콜리너마저 클럽 투어 - 매일 새롭게 태어나는 꿈  #5 창원</t>
-  </si>
-  <si>
-    <t>TONE STUDIO LIVE 〈홍크(HONK)〉</t>
-  </si>
-  <si>
-    <t>제이통 on Sync Next 25</t>
-  </si>
-  <si>
-    <t>2025 NCT DREAM FANMEETING 〈DREAM QUEST〉</t>
-  </si>
-  <si>
-    <t>KIRK FLETCHER : The Master in Korea</t>
-  </si>
-  <si>
-    <t>live SUM 2025: 다양성, 루아멜</t>
-  </si>
-  <si>
-    <t>마인드유 단독콘서트 ‘다시, 봄’ : 롤링 30주년 기념 공연</t>
-  </si>
-  <si>
-    <t>AoB Presents #2 : GO..GO..GHOST?!</t>
-  </si>
-  <si>
-    <t>LUCK LUCK FESTIVAL</t>
-  </si>
-  <si>
-    <t>제17회 서울재즈페스티벌 2025 블라인드</t>
-  </si>
-  <si>
-    <t>도유카 단독 콘서트 Vol.2 2025</t>
-  </si>
-  <si>
-    <t>봄바람에 취한다</t>
-  </si>
-  <si>
-    <t>토스, 머니 코드 콘서트 : Out of 방구석</t>
-  </si>
-  <si>
-    <t>이상준쇼</t>
-  </si>
-  <si>
-    <t>먼데이프로젝트 시즌8 [Laundria : 기쿠하시 감정수집 프로젝트]</t>
-  </si>
-  <si>
-    <t>극동아시아타이거즈 전국투어〈호랑이 소리를 찾아서〉- 부산</t>
-  </si>
-  <si>
-    <t>2025 IRENE &amp; SEULGI Concert Tour [ BALANCE ] in SEOUL</t>
-  </si>
-  <si>
-    <t>DMZ 피스트레인 뮤직 페스티벌 2025</t>
-  </si>
-  <si>
-    <t>김승주 단독 콘서트 ‘HINT II’</t>
-  </si>
-  <si>
-    <t>All Day, JAZZ SHOW! (올데이, 재즈쇼!)</t>
-  </si>
-  <si>
-    <t>먼데이프로젝트 IN 라이브클럽 [담담 단독콘서트]</t>
-  </si>
-  <si>
-    <t>Shinsei Kamattechan Live in Seoul</t>
-  </si>
-  <si>
-    <t>먼데이프로젝트 IN 라이브클럽 [MEN AND THEM 단독콘서트]</t>
-  </si>
-  <si>
-    <t>문없는집 단독공연 〈타임캡슐 vol. 2〉</t>
-  </si>
-  <si>
-    <t>2025 YOO YOUNG JAE FAN MEETING ‘游泳:유영’</t>
-  </si>
-  <si>
-    <t>베리코이버니 단독콘서트 ‘Dream Hacker’ : 롤링 30주년 기념 공연</t>
-  </si>
-  <si>
-    <t>디어클라우드 단독콘서트 ‘한 여름밤의 숨’ : 롤링 30주년 기념 공연</t>
-  </si>
-  <si>
-    <t>프랭클리 단독 콘서트 ‘SUMMER BREAK’</t>
-  </si>
-  <si>
-    <t>켄 (KEN) 단독콘서트 ‘시나브로’ : 롤링 30주년 기념 공연</t>
-  </si>
-  <si>
-    <t>루시드폴, 정마리, 부지현 on Sync Next 25</t>
-  </si>
-  <si>
-    <t>제이크 첫 단독 내한공연 JVKE LIVE IN SEOUL</t>
-  </si>
-  <si>
-    <t>문상훈과 빠더너스 on Sync Next 25</t>
-  </si>
-  <si>
-    <t>벌트vurt., 업체eobchae on Sync Next 25</t>
-  </si>
-  <si>
-    <t>사운드 플래닛 페스티벌 2025 - 얼리버드 티켓</t>
-  </si>
-  <si>
     <t>장범준 금토일 공연 (Weekend Show)</t>
   </si>
   <si>
@@ -412,10 +412,13 @@
     <t>뮤지컬 〈매디슨 카운티의 다리〉</t>
   </si>
   <si>
+    <t>연극 ‘헤다 가블러’</t>
+  </si>
+  <si>
     <t>뮤지컬 〈구텐버그〉</t>
   </si>
   <si>
-    <t>연극 ‘헤다 가블러’</t>
+    <t>뮤지컬 〈멤피스〉</t>
   </si>
   <si>
     <t>매튜 본의 ‘백조의 호수’</t>
@@ -424,15 +427,12 @@
     <t>뮤지컬 〈프리다〉</t>
   </si>
   <si>
-    <t>뮤지컬 〈멤피스〉</t>
+    <t>뮤지컬 더 퍼스트 그레잇 쇼</t>
   </si>
   <si>
     <t>［서울 대학로］연극 라면</t>
   </si>
   <si>
-    <t>뮤지컬 더 퍼스트 그레잇 쇼</t>
-  </si>
-  <si>
     <t>연극 〈퉁소소리〉</t>
   </si>
   <si>
@@ -463,27 +463,27 @@
     <t>리온의 신비한 과자상점－어린이 마술극</t>
   </si>
   <si>
+    <t>2025 live workspace ‘위수’ vol.03 jeonju</t>
+  </si>
+  <si>
     <t>THE SPRING SKYE</t>
   </si>
   <si>
+    <t>정승환 공식 팬클럽 US(어스) 멤버십</t>
+  </si>
+  <si>
     <t>2025 RO WOON FAN MEETING ‘Before Blooming’</t>
   </si>
   <si>
-    <t>정승환 공식 팬클럽 US(어스) 멤버십</t>
-  </si>
-  <si>
-    <t>2025 live workspace ‘위수’ vol.03 jeonju</t>
-  </si>
-  <si>
     <t>Pachi Jimin World Tour Come Back</t>
   </si>
   <si>
+    <t>The Recite - 낭독이 있는 연주회 두번째 이야기</t>
+  </si>
+  <si>
     <t>아이다</t>
   </si>
   <si>
-    <t>The Recite - 낭독이 있는 연주회 두번째 이야기</t>
-  </si>
-  <si>
     <t>영국 로열 발레 ‘더 퍼스트 갈라’</t>
   </si>
   <si>
@@ -544,18 +544,18 @@
     <t>[얼리버드 40%] 에스더버니 특별전 - Love Yourself! 나를 찾아서</t>
   </si>
   <si>
+    <t>David Salle: Under One Roof</t>
+  </si>
+  <si>
+    <t>아르누보의 꽃 : 알폰스 무하 원화전</t>
+  </si>
+  <si>
     <t>2025 BOF - 실크스크린 DIY 워크숍</t>
   </si>
   <si>
-    <t>David Salle: Under One Roof</t>
-  </si>
-  <si>
     <t>2025 BOF - T.B.O.S 업사이클링 DIY 워크숍</t>
   </si>
   <si>
-    <t>아르누보의 꽃 : 알폰스 무하 원화전</t>
-  </si>
-  <si>
     <t>신화：시작하는 이야기</t>
   </si>
   <si>
@@ -583,348 +583,348 @@
     <t>https://ticket.melon.com/performance/index.htm?prodId=211348</t>
   </si>
   <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211376</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211366</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211428</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211429</t>
+  </si>
+  <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=211437</t>
   </si>
   <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211429</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211376</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211428</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211366</t>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211080</t>
   </si>
   <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=211440</t>
   </si>
   <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211027</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211159</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211358</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=210779</t>
+  </si>
+  <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=211427</t>
   </si>
   <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211159</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211080</t>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211217</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211444</t>
   </si>
   <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=211189</t>
   </si>
   <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=210779</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211027</t>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211419</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211418</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211423</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211394</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211399</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211431</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211415</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211433</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211416</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211425</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211414</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211242</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211420</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211309</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211421</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211413</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211406</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211403</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211383</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211361</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211390</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211147</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211391</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211426</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211400</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211290</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211370</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211220</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211388</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211363</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211392</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211454</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211438</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211308</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211365</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211424</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211343</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211369</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211384</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211061</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211385</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211353</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211345</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211321</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211335</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211401</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211380</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211381</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211325</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211251</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211305</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211326</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211362</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211266</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211279</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211382</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211372</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211360</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211314</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211312</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211352</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211315</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211359</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211386</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211409</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211264</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211337</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211377</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211322</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211294</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211395</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=210818</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211398</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211367</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211375</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211459</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211379</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211387</t>
   </si>
   <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=211313</t>
   </si>
   <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211444</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211358</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211419</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211418</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211423</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211399</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211425</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211390</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211413</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211416</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211414</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211394</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211415</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211242</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211420</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211147</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211433</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211361</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211421</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211363</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211392</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211406</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211309</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211391</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211383</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211454</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211438</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211220</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211365</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211431</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211308</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211370</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211343</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211426</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211400</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211384</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211381</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211061</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211380</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211326</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211385</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211382</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211424</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211360</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211251</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211369</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211386</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211387</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211375</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211362</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211325</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211401</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211403</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211314</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211367</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211409</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211266</t>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211065</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211455</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211407</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211446</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211259</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211447</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211430</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211328</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211448</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211443</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211450</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211460</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211453</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211267</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211331</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211439</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211265</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211269</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211303</t>
   </si>
   <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=211168</t>
   </si>
   <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211312</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211331</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211321</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211328</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211279</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211352</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211372</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211388</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211315</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211322</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211359</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211264</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211217</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211337</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211377</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211294</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211345</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211395</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=210818</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211335</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211398</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211353</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211459</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211379</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211305</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211290</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211065</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211455</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211407</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211446</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211259</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211447</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211430</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211448</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211443</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211450</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211460</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211453</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211267</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211439</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211265</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211269</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211303</t>
-  </si>
-  <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=211368</t>
   </si>
   <si>
@@ -934,10 +934,13 @@
     <t>https://ticket.melon.com/performance/index.htm?prodId=211131</t>
   </si>
   <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211104</t>
+  </si>
+  <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=211191</t>
   </si>
   <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211104</t>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211297</t>
   </si>
   <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=210913</t>
@@ -946,15 +949,12 @@
     <t>https://ticket.melon.com/performance/index.htm?prodId=211336</t>
   </si>
   <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211297</t>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=210939</t>
   </si>
   <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=207987</t>
   </si>
   <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=210939</t>
-  </si>
-  <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=210936</t>
   </si>
   <si>
@@ -985,27 +985,27 @@
     <t>https://ticket.melon.com/performance/index.htm?prodId=210446</t>
   </si>
   <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211373</t>
+  </si>
+  <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=211357</t>
   </si>
   <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211078</t>
+  </si>
+  <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=211287</t>
   </si>
   <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211078</t>
-  </si>
-  <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211373</t>
-  </si>
-  <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=211457</t>
   </si>
   <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211378</t>
+  </si>
+  <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=210961</t>
   </si>
   <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211378</t>
-  </si>
-  <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=210916</t>
   </si>
   <si>
@@ -1066,18 +1066,18 @@
     <t>https://ticket.melon.com/performance/index.htm?prodId=211371</t>
   </si>
   <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211405</t>
+  </si>
+  <si>
+    <t>https://ticket.melon.com/performance/index.htm?prodId=211200</t>
+  </si>
+  <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=211411</t>
   </si>
   <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211405</t>
-  </si>
-  <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=211410</t>
   </si>
   <si>
-    <t>https://ticket.melon.com/performance/index.htm?prodId=211200</t>
-  </si>
-  <si>
     <t>https://ticket.melon.com/performance/index.htm?prodId=210456</t>
   </si>
   <si>
@@ -1102,114 +1102,114 @@
     <t>2025.07.19</t>
   </si>
   <si>
+    <t>2025.06.21</t>
+  </si>
+  <si>
+    <t>2025.05.30</t>
+  </si>
+  <si>
+    <t>2025.09.13</t>
+  </si>
+  <si>
+    <t>2025.06.28</t>
+  </si>
+  <si>
     <t>2025.06.14</t>
   </si>
   <si>
-    <t>2025.06.28</t>
-  </si>
-  <si>
-    <t>2025.06.21</t>
-  </si>
-  <si>
-    <t>2025.09.13</t>
-  </si>
-  <si>
-    <t>2025.05.30</t>
-  </si>
-  <si>
     <t>2025.05.23</t>
   </si>
   <si>
+    <t>2025.07.10</t>
+  </si>
+  <si>
     <t>2025.05.24</t>
   </si>
   <si>
+    <t>2025.06.05</t>
+  </si>
+  <si>
+    <t>2025.06.15</t>
+  </si>
+  <si>
+    <t>2025.05.31</t>
+  </si>
+  <si>
+    <t>2025.07.06</t>
+  </si>
+  <si>
+    <t>2025.06.07</t>
+  </si>
+  <si>
+    <t>2025.06.09</t>
+  </si>
+  <si>
+    <t>2025.06.13</t>
+  </si>
+  <si>
+    <t>2025.06.23</t>
+  </si>
+  <si>
+    <t>2025.06.19</t>
+  </si>
+  <si>
+    <t>2025.06.20</t>
+  </si>
+  <si>
+    <t>2025.06.06</t>
+  </si>
+  <si>
+    <t>2025.05.26</t>
+  </si>
+  <si>
+    <t>2025.06.22</t>
+  </si>
+  <si>
+    <t>2025.06.01</t>
+  </si>
+  <si>
+    <t>2025.06.29</t>
+  </si>
+  <si>
+    <t>2025.06.08</t>
+  </si>
+  <si>
+    <t>2025.05.27</t>
+  </si>
+  <si>
+    <t>2025.06.04</t>
+  </si>
+  <si>
+    <t>2025.05.25</t>
+  </si>
+  <si>
+    <t>2025.07.11</t>
+  </si>
+  <si>
+    <t>2025.06.02</t>
+  </si>
+  <si>
+    <t>2025.08.08</t>
+  </si>
+  <si>
+    <t>2025.06.03</t>
+  </si>
+  <si>
     <t>2025.06.11</t>
   </si>
   <si>
-    <t>2025.06.05</t>
-  </si>
-  <si>
-    <t>2025.07.10</t>
-  </si>
-  <si>
-    <t>2025.06.15</t>
-  </si>
-  <si>
-    <t>2025.05.31</t>
-  </si>
-  <si>
-    <t>2025.07.06</t>
-  </si>
-  <si>
-    <t>2025.06.23</t>
-  </si>
-  <si>
-    <t>2025.06.19</t>
-  </si>
-  <si>
-    <t>2025.06.09</t>
-  </si>
-  <si>
-    <t>2025.06.07</t>
-  </si>
-  <si>
-    <t>2025.06.20</t>
-  </si>
-  <si>
-    <t>2025.06.13</t>
-  </si>
-  <si>
-    <t>2025.06.06</t>
-  </si>
-  <si>
-    <t>2025.06.22</t>
-  </si>
-  <si>
-    <t>2025.06.29</t>
-  </si>
-  <si>
-    <t>2025.06.01</t>
-  </si>
-  <si>
-    <t>2025.06.08</t>
-  </si>
-  <si>
-    <t>2025.06.04</t>
-  </si>
-  <si>
-    <t>2025.05.26</t>
-  </si>
-  <si>
-    <t>2025.05.25</t>
-  </si>
-  <si>
-    <t>2025.06.02</t>
-  </si>
-  <si>
-    <t>2025.07.11</t>
+    <t>2025.06.17</t>
+  </si>
+  <si>
+    <t>2025.06.18</t>
+  </si>
+  <si>
+    <t>2025.06.27</t>
   </si>
   <si>
     <t>2025.07.13</t>
   </si>
   <si>
-    <t>2025.08.08</t>
-  </si>
-  <si>
-    <t>2025.05.27</t>
-  </si>
-  <si>
-    <t>2025.06.03</t>
-  </si>
-  <si>
-    <t>2025.06.17</t>
-  </si>
-  <si>
-    <t>2025.06.18</t>
-  </si>
-  <si>
-    <t>2025.06.27</t>
-  </si>
-  <si>
     <t>2025.08.21</t>
   </si>
   <si>
@@ -1225,18 +1225,18 @@
     <t>2025.05.01</t>
   </si>
   <si>
+    <t>2025.05.07</t>
+  </si>
+  <si>
     <t>2025.04.30</t>
   </si>
   <si>
-    <t>2025.05.07</t>
+    <t>2025.05.29</t>
   </si>
   <si>
     <t>2023.03.20</t>
   </si>
   <si>
-    <t>2025.05.29</t>
-  </si>
-  <si>
     <t>2025.04.02</t>
   </si>
   <si>
@@ -1339,12 +1339,12 @@
     <t>2025.08.11</t>
   </si>
   <si>
+    <t>2025.09.21</t>
+  </si>
+  <si>
     <t>2025.09.07</t>
   </si>
   <si>
-    <t>2025.09.21</t>
-  </si>
-  <si>
     <t>2025.09.28</t>
   </si>
   <si>
@@ -1387,180 +1387,180 @@
     <t>고려대학교 화정체육관</t>
   </si>
   <si>
+    <t>KBS아레나 (구88체육관)</t>
+  </si>
+  <si>
+    <t>부산항국제여객터미널 야외주차장 일원</t>
+  </si>
+  <si>
+    <t>인천 파라다이스시티</t>
+  </si>
+  <si>
     <t>예스24 라이브홀 (구 악스코리아)</t>
   </si>
   <si>
-    <t>KBS아레나 (구88체육관)</t>
-  </si>
-  <si>
-    <t>인천 파라다이스시티</t>
-  </si>
-  <si>
-    <t>부산항국제여객터미널 야외주차장 일원</t>
+    <t>올림픽공원</t>
   </si>
   <si>
     <t>현대카드 UNDERSTAGE, 언더스테이지</t>
   </si>
   <si>
+    <t>대구 엑스코(EXCO) 동관 전시 4홀</t>
+  </si>
+  <si>
+    <t>KSPO DOME (올림픽 체조경기장)</t>
+  </si>
+  <si>
+    <t>고척스카이돔</t>
+  </si>
+  <si>
+    <t>일산 킨텍스(KINTEX) 야외 글로벌 스테이지(KINTEX 제2전시장)</t>
+  </si>
+  <si>
     <t>롤링홀</t>
   </si>
   <si>
-    <t>KSPO DOME (올림픽 체조경기장)</t>
-  </si>
-  <si>
-    <t>올림픽공원</t>
+    <t>인스파이어 아레나</t>
   </si>
   <si>
     <t>올림픽공원 핸드볼경기장</t>
   </si>
   <si>
-    <t>일산 킨텍스(KINTEX) 야외 글로벌 스테이지(KINTEX 제2전시장)</t>
-  </si>
-  <si>
-    <t>대구 엑스코(EXCO) 동관 전시 4홀</t>
+    <t>구름아래소극장</t>
+  </si>
+  <si>
+    <t>CJ아지트 광흥창</t>
+  </si>
+  <si>
+    <t>서보미술문화공간 서울</t>
+  </si>
+  <si>
+    <t>일산 킨텍스(KINTEX) 제2전시장 9홀</t>
+  </si>
+  <si>
+    <t>용인 포은아트홀</t>
+  </si>
+  <si>
+    <t>벨로주 홍대</t>
+  </si>
+  <si>
+    <t>공상온도</t>
+  </si>
+  <si>
+    <t>톤 스튜디오</t>
+  </si>
+  <si>
+    <t>우리금융아트홀</t>
+  </si>
+  <si>
+    <t>잠실실내체육관</t>
+  </si>
+  <si>
+    <t>클럽온에어</t>
+  </si>
+  <si>
+    <t>구로아트밸리 예술극장</t>
+  </si>
+  <si>
+    <t>KT&amp;G 상상마당 시네마</t>
+  </si>
+  <si>
+    <t>LG아트센터 서울 U+ 스테이지</t>
+  </si>
+  <si>
+    <t>노들섬 라이브하우스</t>
+  </si>
+  <si>
+    <t>서울 난지한강공원</t>
+  </si>
+  <si>
+    <t>프리즘홀</t>
+  </si>
+  <si>
+    <t>올림픽공원 올림픽홀</t>
+  </si>
+  <si>
+    <t>벨로주 망원</t>
+  </si>
+  <si>
+    <t>드림씨어터</t>
+  </si>
+  <si>
+    <t>KT&amp;G 상상마당 춘천 사운드홀</t>
+  </si>
+  <si>
+    <t>홍대팝업 스팟</t>
+  </si>
+  <si>
+    <t>송도 달빛축제공원</t>
+  </si>
+  <si>
+    <t>신도시</t>
+  </si>
+  <si>
+    <t>서울대학교 제1파워플랜트</t>
+  </si>
+  <si>
+    <t>KT&amp;G 상상마당 라이브홀</t>
+  </si>
+  <si>
+    <t>대구 라이브홀 락왕</t>
+  </si>
+  <si>
+    <t>KT&amp;G 상상마당 홍대 라이브홀</t>
+  </si>
+  <si>
+    <t>인터플레이</t>
+  </si>
+  <si>
+    <t>KT&amp;G 상상마당 부산 라이브홀</t>
+  </si>
+  <si>
+    <t>보헤미안</t>
+  </si>
+  <si>
+    <t>세종문화회관 S씨어터</t>
+  </si>
+  <si>
+    <t>웨스트브릿지 라이브홀</t>
+  </si>
+  <si>
+    <t>부산 오방가르드</t>
+  </si>
+  <si>
+    <t>살롱문보우</t>
+  </si>
+  <si>
+    <t>무신사 개러지</t>
+  </si>
+  <si>
+    <t>온맘시어터</t>
+  </si>
+  <si>
+    <t>창원 피드백</t>
+  </si>
+  <si>
+    <t>언플러그드 라운지</t>
+  </si>
+  <si>
+    <t>장소 정보 없음</t>
   </si>
   <si>
     <t>부산 벡스코(BEXCO) 제 1전시장</t>
   </si>
   <si>
-    <t>고척스카이돔</t>
-  </si>
-  <si>
-    <t>구름아래소극장</t>
-  </si>
-  <si>
-    <t>CJ아지트 광흥창</t>
-  </si>
-  <si>
-    <t>서보미술문화공간 서울</t>
-  </si>
-  <si>
-    <t>용인 포은아트홀</t>
-  </si>
-  <si>
-    <t>톤 스튜디오</t>
-  </si>
-  <si>
-    <t>구로아트밸리 예술극장</t>
-  </si>
-  <si>
-    <t>공상온도</t>
-  </si>
-  <si>
-    <t>일산 킨텍스(KINTEX) 제2전시장 9홀</t>
-  </si>
-  <si>
-    <t>우리금융아트홀</t>
-  </si>
-  <si>
-    <t>서울 난지한강공원</t>
-  </si>
-  <si>
-    <t>노들섬 라이브하우스</t>
-  </si>
-  <si>
-    <t>클럽온에어</t>
-  </si>
-  <si>
-    <t>LG아트센터 서울 U+ 스테이지</t>
-  </si>
-  <si>
-    <t>잠실실내체육관</t>
-  </si>
-  <si>
-    <t>벨로주 홍대</t>
-  </si>
-  <si>
-    <t>드림씨어터</t>
-  </si>
-  <si>
-    <t>KT&amp;G 상상마당 춘천 사운드홀</t>
-  </si>
-  <si>
-    <t>벨로주 망원</t>
-  </si>
-  <si>
-    <t>홍대팝업 스팟</t>
-  </si>
-  <si>
-    <t>프리즘홀</t>
-  </si>
-  <si>
-    <t>송도 달빛축제공원</t>
-  </si>
-  <si>
-    <t>보헤미안</t>
-  </si>
-  <si>
-    <t>신도시</t>
-  </si>
-  <si>
-    <t>KT&amp;G 상상마당 라이브홀</t>
-  </si>
-  <si>
-    <t>무신사 개러지</t>
-  </si>
-  <si>
-    <t>인터플레이</t>
-  </si>
-  <si>
-    <t>KT&amp;G 상상마당 시네마</t>
-  </si>
-  <si>
-    <t>세종문화회관 S씨어터</t>
-  </si>
-  <si>
-    <t>부산 오방가르드</t>
-  </si>
-  <si>
-    <t>대구 라이브홀 락왕</t>
+    <t>강원도 철원군 고석정 일대</t>
+  </si>
+  <si>
+    <t>종로 이들스(EDLS), 이태원 올댓재즈</t>
+  </si>
+  <si>
+    <t>스페이스한강</t>
   </si>
   <si>
     <t>바이널 언더그라운드</t>
   </si>
   <si>
-    <t>KT&amp;G 상상마당 부산 라이브홀</t>
-  </si>
-  <si>
-    <t>살롱문보우</t>
-  </si>
-  <si>
-    <t>웨스트브릿지 라이브홀</t>
-  </si>
-  <si>
-    <t>창원 피드백</t>
-  </si>
-  <si>
-    <t>인스파이어 아레나</t>
-  </si>
-  <si>
-    <t>온맘시어터</t>
-  </si>
-  <si>
-    <t>KT&amp;G 상상마당 홍대 라이브홀</t>
-  </si>
-  <si>
-    <t>언플러그드 라운지</t>
-  </si>
-  <si>
-    <t>서울대학교 제1파워플랜트</t>
-  </si>
-  <si>
-    <t>장소 정보 없음</t>
-  </si>
-  <si>
-    <t>올림픽공원 올림픽홀</t>
-  </si>
-  <si>
-    <t>강원도 철원군 고석정 일대</t>
-  </si>
-  <si>
-    <t>종로 이들스(EDLS), 이태원 올댓재즈</t>
-  </si>
-  <si>
-    <t>스페이스한강</t>
-  </si>
-  <si>
     <t>가빈아트홀</t>
   </si>
   <si>
@@ -1570,24 +1570,24 @@
     <t>광림아트센터 BBCH홀</t>
   </si>
   <si>
+    <t>LG아트센터 서울 LG SIGNATURE 홀</t>
+  </si>
+  <si>
     <t>플러스씨어터</t>
   </si>
   <si>
-    <t>LG아트센터 서울 LG SIGNATURE 홀</t>
+    <t>충무아트센터 대극장</t>
   </si>
   <si>
     <t>NOL 유니플렉스 1관(구 인터파크 유니플렉스)</t>
   </si>
   <si>
-    <t>충무아트센터 대극장</t>
+    <t>세종문화회관 M씨어터</t>
   </si>
   <si>
     <t>해피씨어터</t>
   </si>
   <si>
-    <t>세종문화회관 M씨어터</t>
-  </si>
-  <si>
     <t>광화문 전용관 (경향아트힐)</t>
   </si>
   <si>
@@ -1603,15 +1603,15 @@
     <t>사상 다누림홀</t>
   </si>
   <si>
+    <t>5F Live Office @ dabubucompany</t>
+  </si>
+  <si>
     <t>H-스테이지</t>
   </si>
   <si>
     <t>광운대 동해문화예술관</t>
   </si>
   <si>
-    <t>5F Live Office @ dabubucompany</t>
-  </si>
-  <si>
     <t>온맘씨어터</t>
   </si>
   <si>
@@ -1627,15 +1627,15 @@
     <t>예술의전당 한가람디자인미술관</t>
   </si>
   <si>
+    <t>현대카드 스토리지</t>
+  </si>
+  <si>
+    <t>마이아트뮤지엄</t>
+  </si>
+  <si>
     <t>부산 벡스코(BEXCO) 제 1전시장 야외주차장</t>
   </si>
   <si>
-    <t>현대카드 스토리지</t>
-  </si>
-  <si>
-    <t>마이아트뮤지엄</t>
-  </si>
-  <si>
     <t>뮤지엄 원</t>
   </si>
   <si>
@@ -1654,195 +1654,195 @@
     <t>전석154,000원</t>
   </si>
   <si>
+    <t>R석154,000원/S석143,000원</t>
+  </si>
+  <si>
+    <t>전석5,000원</t>
+  </si>
+  <si>
+    <t>1일권121,000원/2일권198,000원</t>
+  </si>
+  <si>
+    <t>전석99,000원</t>
+  </si>
+  <si>
     <t>일반석143,000원</t>
   </si>
   <si>
-    <t>전석99,000원</t>
-  </si>
-  <si>
-    <t>R석154,000원/S석143,000원</t>
-  </si>
-  <si>
-    <t>1일권121,000원/2일권198,000원</t>
-  </si>
-  <si>
-    <t>전석5,000원</t>
+    <t>3일권460,000원/1일권 금요일187,000원/1일권 토요일187,000원/1일권 일요일187,000원</t>
   </si>
   <si>
     <t>VIP121,000원/일반88,000원</t>
   </si>
   <si>
+    <t>양일권139,000원/일일권（토）80,000원/일일권（일）80,000원</t>
+  </si>
+  <si>
+    <t>다이아몬드석198,000원/스탠딩석154,000원/일반지정석154,000원</t>
+  </si>
+  <si>
+    <t>VIP석198,000원/일반석154,000원</t>
+  </si>
+  <si>
+    <t>(금)5차 티켓_그린팀132,000원/(금)5차 티켓_옐로우팀132,000원/(토)7차 티켓_그린팀154,000원/(토)7차 티켓_옐로우팀154,000원/(일)7차 티켓_그린팀154,000원/(일)7차 티켓_옐로우팀154,000원</t>
+  </si>
+  <si>
     <t>일반77,000원</t>
   </si>
   <si>
-    <t>다이아몬드석198,000원/스탠딩석154,000원/일반지정석154,000원</t>
-  </si>
-  <si>
-    <t>3일권460,000원/1일권 금요일187,000원/1일권 토요일187,000원/1일권 일요일187,000원</t>
+    <t>전석110,000원</t>
+  </si>
+  <si>
+    <t>스탠딩77,000원</t>
   </si>
   <si>
     <t>VIP－GROUP PHOTO220,000원/VIP－SOUND CHECK187,000원/R석154,000원/S석143,000원</t>
   </si>
   <si>
-    <t>(금)5차 티켓_그린팀132,000원/(금)5차 티켓_옐로우팀132,000원/(토)7차 티켓_그린팀154,000원/(토)7차 티켓_옐로우팀154,000원/(일)7차 티켓_그린팀154,000원/(일)7차 티켓_옐로우팀154,000원</t>
-  </si>
-  <si>
-    <t>양일권139,000원/일일권（토）80,000원/일일권（일）80,000원</t>
+    <t>일반88,000원</t>
+  </si>
+  <si>
+    <t>전석 스탠딩66,000원</t>
+  </si>
+  <si>
+    <t>전석44,000원</t>
+  </si>
+  <si>
+    <t>양일권159,000원/일일권（토）115,000원/일일권（일）115,000원</t>
+  </si>
+  <si>
+    <t>R석143,000원/S석132,000원/A석110,000원</t>
+  </si>
+  <si>
+    <t>지정석44,000원</t>
+  </si>
+  <si>
+    <t>전석 지정석33,000원</t>
+  </si>
+  <si>
+    <t>전석55,000원</t>
+  </si>
+  <si>
+    <t>스탠딩55,000원</t>
+  </si>
+  <si>
+    <t>일반44,000원</t>
+  </si>
+  <si>
+    <t>R석154,000원/S석132,000원</t>
+  </si>
+  <si>
+    <t>VIP석198,000원/일반석154,000원/일반석(시야제한석)154,000원</t>
+  </si>
+  <si>
+    <t>전석88,000원</t>
+  </si>
+  <si>
+    <t>스탠딩석77,000원/스탠딩석88,000원/스탠딩석99,000원</t>
+  </si>
+  <si>
+    <t>R석88,000원/S석77,000원</t>
+  </si>
+  <si>
+    <t>양일권149,000원/일일권110,000원</t>
+  </si>
+  <si>
+    <t>전석45,000원</t>
+  </si>
+  <si>
+    <t>스탠딩154,000원/지정석154,000원</t>
+  </si>
+  <si>
+    <t>R석143,000원/S석121,000원/A석110,000원</t>
+  </si>
+  <si>
+    <t>전석77,000원</t>
+  </si>
+  <si>
+    <t>일반석44,000원</t>
+  </si>
+  <si>
+    <t>전석50,000원</t>
+  </si>
+  <si>
+    <t>일반55,000원</t>
+  </si>
+  <si>
+    <t>스탠딩석99,000원</t>
+  </si>
+  <si>
+    <t>1인권55,000원/2인권(1+1)66,000원</t>
+  </si>
+  <si>
+    <t>전석22,000원</t>
+  </si>
+  <si>
+    <t>전석 스탠딩55,000원</t>
+  </si>
+  <si>
+    <t>전석66,000원</t>
+  </si>
+  <si>
+    <t>지정좌석제55,000원</t>
+  </si>
+  <si>
+    <t>지정석55,000원</t>
+  </si>
+  <si>
+    <t>전석95,000원</t>
+  </si>
+  <si>
+    <t>전체66,000원</t>
+  </si>
+  <si>
+    <t>전석 지정석55,000원</t>
+  </si>
+  <si>
+    <t>전석 지정석40,000원</t>
+  </si>
+  <si>
+    <t>전석38,000원</t>
+  </si>
+  <si>
+    <t>좌석55,000원</t>
+  </si>
+  <si>
+    <t>스탠딩석75,000원/지정석75,000원</t>
+  </si>
+  <si>
+    <t>일반석77,000원</t>
+  </si>
+  <si>
+    <t>일반66,000원</t>
+  </si>
+  <si>
+    <t>블라인드 티켓 3일권360,000원</t>
+  </si>
+  <si>
+    <t>일반석43,000원</t>
+  </si>
+  <si>
+    <t>전석 스탠딩44,000원</t>
   </si>
   <si>
     <t>전석70,000원/티켓 할인 구역40,000원</t>
   </si>
   <si>
-    <t>스탠딩77,000원</t>
-  </si>
-  <si>
-    <t>VIP석198,000원/일반석154,000원</t>
-  </si>
-  <si>
-    <t>일반88,000원</t>
-  </si>
-  <si>
-    <t>전석 스탠딩66,000원</t>
-  </si>
-  <si>
-    <t>전석44,000원</t>
-  </si>
-  <si>
-    <t>R석143,000원/S석132,000원/A석110,000원</t>
-  </si>
-  <si>
-    <t>스탠딩55,000원</t>
-  </si>
-  <si>
-    <t>일반44,000원</t>
-  </si>
-  <si>
-    <t>전석88,000원</t>
-  </si>
-  <si>
-    <t>전석 지정석33,000원</t>
-  </si>
-  <si>
-    <t>양일권159,000원/일일권（토）115,000원/일일권（일）115,000원</t>
-  </si>
-  <si>
-    <t>R석154,000원/S석132,000원</t>
-  </si>
-  <si>
-    <t>양일권149,000원/일일권110,000원</t>
-  </si>
-  <si>
-    <t>전석55,000원</t>
-  </si>
-  <si>
-    <t>R석88,000원/S석77,000원</t>
-  </si>
-  <si>
-    <t>지정석44,000원</t>
-  </si>
-  <si>
-    <t>전석77,000원</t>
-  </si>
-  <si>
-    <t>VIP석198,000원/일반석154,000원/일반석(시야제한석)154,000원</t>
-  </si>
-  <si>
-    <t>스탠딩석77,000원/스탠딩석88,000원/스탠딩석99,000원</t>
-  </si>
-  <si>
-    <t>일반석44,000원</t>
-  </si>
-  <si>
-    <t>전석50,000원</t>
-  </si>
-  <si>
-    <t>R석143,000원/S석121,000원/A석110,000원</t>
-  </si>
-  <si>
-    <t>일반55,000원</t>
-  </si>
-  <si>
-    <t>전석45,000원</t>
-  </si>
-  <si>
-    <t>스탠딩석99,000원</t>
-  </si>
-  <si>
-    <t>전석66,000원</t>
-  </si>
-  <si>
-    <t>전석 지정석55,000원</t>
-  </si>
-  <si>
-    <t>지정석55,000원</t>
-  </si>
-  <si>
-    <t>전석95,000원</t>
+    <t>LAST TRAIN 티켓 전일권143,000원/LAST TRAIN 티켓 1일권(토)99,000원/LAST TRAIN 티켓 1일권(일)88,000원</t>
+  </si>
+  <si>
+    <t>전석33,000원</t>
+  </si>
+  <si>
+    <t>VIP석125,000원/일반석99,000원</t>
+  </si>
+  <si>
+    <t>플로어석65,000원/지정석55,000원</t>
   </si>
   <si>
     <t>VIP석110,000원/일반석88,000원</t>
   </si>
   <si>
-    <t>전석 스탠딩55,000원</t>
-  </si>
-  <si>
-    <t>전체66,000원</t>
-  </si>
-  <si>
-    <t>전석 지정석40,000원</t>
-  </si>
-  <si>
-    <t>전석38,000원</t>
-  </si>
-  <si>
-    <t>좌석55,000원</t>
-  </si>
-  <si>
-    <t>스탠딩석75,000원/지정석75,000원</t>
-  </si>
-  <si>
-    <t>전석110,000원</t>
-  </si>
-  <si>
-    <t>일반석77,000원</t>
-  </si>
-  <si>
-    <t>일반66,000원</t>
-  </si>
-  <si>
-    <t>전석22,000원</t>
-  </si>
-  <si>
-    <t>블라인드 티켓 3일권360,000원</t>
-  </si>
-  <si>
-    <t>1인권55,000원/2인권(1+1)66,000원</t>
-  </si>
-  <si>
-    <t>일반석43,000원</t>
-  </si>
-  <si>
-    <t>전석 스탠딩44,000원</t>
-  </si>
-  <si>
-    <t>지정좌석제55,000원</t>
-  </si>
-  <si>
-    <t>스탠딩154,000원/지정석154,000원</t>
-  </si>
-  <si>
-    <t>LAST TRAIN 티켓 전일권143,000원/LAST TRAIN 티켓 1일권(토)99,000원/LAST TRAIN 티켓 1일권(일)88,000원</t>
-  </si>
-  <si>
-    <t>전석33,000원</t>
-  </si>
-  <si>
-    <t>VIP석125,000원/일반석99,000원</t>
-  </si>
-  <si>
-    <t>플로어석65,000원/지정석55,000원</t>
-  </si>
-  <si>
     <t>스탠딩석121,000원/지정석 R석132,000원/지정석 S석110,000원</t>
   </si>
   <si>
@@ -1861,10 +1861,13 @@
     <t>VIP석160,000원/R석140,000원/S석100,000원/A석70,000원</t>
   </si>
   <si>
+    <t>R석110,000원/S석80,000원/A석60,000원/B석40,000원</t>
+  </si>
+  <si>
     <t>R석70,000원/S석55,000원</t>
   </si>
   <si>
-    <t>R석110,000원/S석80,000원/A석60,000원/B석40,000원</t>
+    <t>VIP석170,000원/R석140,000원/S석110,000원/A석80,000원</t>
   </si>
   <si>
     <t>LG SIGNATURE석150,000원/R석130,000원/S석100,000원/A석60,000원</t>
@@ -1873,15 +1876,12 @@
     <t>R석88,000원/S석66,000원/A석55,000원</t>
   </si>
   <si>
-    <t>VIP석170,000원/R석140,000원/S석110,000원/A석80,000원</t>
+    <t>R석80,000원/S석60,000원</t>
   </si>
   <si>
     <t>정가60,000원</t>
   </si>
   <si>
-    <t>R석80,000원/S석60,000원</t>
-  </si>
-  <si>
     <t>R석60,000원/S석50,000원/A석40,000원</t>
   </si>
   <si>
@@ -1915,12 +1915,12 @@
     <t>VIP석55,000원/일반석33,000원</t>
   </si>
   <si>
+    <t>전석30,000원</t>
+  </si>
+  <si>
     <t>VIP석150,000원/R석120,000원/S석100,000원/A석80,000원/B석50,000원</t>
   </si>
   <si>
-    <t>전석30,000원</t>
-  </si>
-  <si>
     <t>VIP석280,000원/R석230,000원/S석180,000원/A석120,000원/B석80,000원</t>
   </si>
   <si>
@@ -1957,18 +1957,18 @@
     <t>에스더버니20,000원/에스더버니x더보이즈35,000원</t>
   </si>
   <si>
+    <t>일반5,000원/중고생4,000원</t>
+  </si>
+  <si>
+    <t>성인22,000원/청소년18,000원/어린이14,000원</t>
+  </si>
+  <si>
     <t>워크숍 1인50,000원</t>
   </si>
   <si>
-    <t>일반5,000원/중고생4,000원</t>
-  </si>
-  <si>
     <t>워크숍 1인30,000원</t>
   </si>
   <si>
-    <t>성인22,000원/청소년18,000원/어린이14,000원</t>
-  </si>
-  <si>
     <t>성인18,000원/청소년(중-고등)15,000원/어린이(-초등)13,000원</t>
   </si>
   <si>
@@ -1993,21 +1993,21 @@
     <t>8세 이상</t>
   </si>
   <si>
+    <t>전체관람가</t>
+  </si>
+  <si>
     <t>미취학아동입장불가</t>
   </si>
   <si>
-    <t>전체관람가</t>
+    <t>19세 이상</t>
+  </si>
+  <si>
+    <t>18세 이상</t>
   </si>
   <si>
     <t>15세 이상</t>
   </si>
   <si>
-    <t>19세 이상</t>
-  </si>
-  <si>
-    <t>18세 이상</t>
-  </si>
-  <si>
     <t>12세 이상</t>
   </si>
   <si>
@@ -2038,288 +2038,288 @@
     <t>도경수(D.O.)</t>
   </si>
   <si>
+    <t>SF9</t>
+  </si>
+  <si>
+    <t>SUPER JUNIOR-D&amp;E/CNBLUE (씨엔블루)/ITZY (있지)/엔플라잉 (N.Flying)/경서/dori/조째즈</t>
+  </si>
+  <si>
+    <t>YB (윤도현 밴드)/체리필터 (cherryfilter)/넬 (NELL)/브로큰 발렌타인 (Broken Valentine)/이승윤/Envy/Mass Of The Fermenting Dregs/데이먼스 이어 (Damons year)/KARDI (카디)/송소희/해서웨이 (hathaw9y)/dosii (도시)/can’t be blue (캔트비블루)/고고학 (Gogohawk)/기프트 (GIFT)/너드커넥션 (Nerd Connection)/딕펑스(DPNS)/LUCY/맥거핀 (MGFF)/스킵잭 (SKIPJACK)/심아일랜드/Adios Audio/어반자카파/원위 (ONEWE)/적란운/크랙샷 (Crackshot)/KINO/Tuesday Beach Club/향(HYANG)/극동아시아타이거즈/김마리/W24/보라미유/볼빨간사춘기/브로콜리너마저/손을모아/오이스터/음율/중식이/Catch The Young(캐치더영)/켄(KEN)/크라잉넛 (CRYING NUT)/한로로/HarryBigButton (해리빅버튼)/행로난</t>
+  </si>
+  <si>
     <t>원위 (ONEWE)</t>
   </si>
   <si>
-    <t>SF9</t>
-  </si>
-  <si>
-    <t>YB (윤도현 밴드)/체리필터 (cherryfilter)/넬 (NELL)/브로큰 발렌타인 (Broken Valentine)/이승윤/Envy/Mass Of The Fermenting Dregs/데이먼스 이어 (Damons year)/KARDI (카디)/송소희/해서웨이 (hathaw9y)/dosii (도시)/can’t be blue (캔트비블루)/고고학 (Gogohawk)/기프트 (GIFT)/너드커넥션 (Nerd Connection)/딕펑스(DPNS)/LUCY/맥거핀 (MGFF)/스킵잭 (SKIPJACK)/심아일랜드/Adios Audio/어반자카파/원위 (ONEWE)/적란운/크랙샷 (Crackshot)/KINO/Tuesday Beach Club/향(HYANG)/극동아시아타이거즈/김마리/W24/보라미유/볼빨간사춘기/브로콜리너마저/손을모아/오이스터/음율/중식이/Catch The Young(캐치더영)/켄(KEN)/크라잉넛 (CRYING NUT)/한로로/HarryBigButton (해리빅버튼)/행로난</t>
-  </si>
-  <si>
-    <t>SUPER JUNIOR-D&amp;E/CNBLUE (씨엔블루)/ITZY (있지)/엔플라잉 (N.Flying)/경서/dori/조째즈</t>
+    <t>LANY/Kamasi Washington/RAYE/Eliane Elias/Jacob Collier/Thundercat/Kings Of Convenience/Valley/도영 (DOYOUNG)/Emotional Oranges/Snarky Puppy/Yussef Dayes/Incognito/잔나비/LUCY/장범준/권진아/Penthouse (펜트하우스)/Bela Fleck/Edmar Castaneda/Antonio Sanchez/존박/Michael Mayo/Alexander Stewart/곽진언/최유리/자이로 (zai.ro)/Dhruv/윤석철트리오/안신애/까데호/대니 구/에픽하이 (EPIK HIGH)/이상순/조원선/Tomoaki Baba/BIGYUKI/고상지/최문석/AnnoyingBox/Crush/Alex Sampson/데이브레이크 (Daybreak)/jisokuryClub/Cy Leo/문미향/Damiano David/Gallant/CNBLUE (씨엔블루)/이영지/홍이삭/SUMIN (수민)/Slom/O'KOYE/박지은/UMI/Wouter Hamel/스텔라장 (Stella Jang)/키코 (Kik5o)/김윤아/Tower Of Power/다이나믹 듀오/José James</t>
   </si>
   <si>
     <t>방용국</t>
   </si>
   <si>
+    <t>Shyboiitobii (샤이보이토비)/E SENS/루피 (Loopy)/오왼 (Owen)/식케이 (Sik-K)/김하온 (HAON)/빈첸/양홍원/B.I/NO:EL/한요한/키드밀리 (Kid Milli)/저스디스 (JUSTHIS)/쿠기 (Coogie)/Paul Blanco/JAEHA (재하)/래원 (Layone)/김효은/던말릭 (DON MALIK)/Tabber/노윤하/Fleeky Bang/Skinny Brown/제이통 (J-Tong)/Hash Swan/OSUN (권오선)/Royal 44/Nosun/KHAN/UNEDUCATED KID/ZENE THE ZILLA/KOR KASH/Chin/CK/Louie/Tray B/Polodared/김승민/BILL STAX (빌스택스)/lobonabeat!/oygli/최성/고스트클럽(Ghvstclub)/Wuuslime (우슬라임)/율음/CHERRY BOY 17 (체리보이17)/Street Baby/OLNL (오르내림)/OXYNOVA/JP/KANG HYUK/Ashiroo (아쉬루)/foggyatthebottom/NOWIMYOUNG(나우아임영)</t>
+  </si>
+  <si>
+    <t>SHINee (샤이니)</t>
+  </si>
+  <si>
+    <t>NCT DREAM</t>
+  </si>
+  <si>
+    <t>카이 (KAI)/Crush/로꼬/Kep1er (케플러)/ASH ISLAND/권은비/백호/프로미스나인/이영지/pH-1/청하</t>
+  </si>
+  <si>
     <t>정성하</t>
   </si>
   <si>
-    <t>SHINee (샤이니)</t>
-  </si>
-  <si>
-    <t>LANY/Kamasi Washington/RAYE/Eliane Elias/Jacob Collier/Thundercat/Kings Of Convenience/Valley/도영 (DOYOUNG)/Emotional Oranges/Snarky Puppy/Yussef Dayes/Incognito/잔나비/LUCY/장범준/권진아/Penthouse (펜트하우스)/Bela Fleck/Edmar Castaneda/Antonio Sanchez/존박/Michael Mayo/Alexander Stewart/곽진언/최유리/자이로 (zai.ro)/Dhruv/윤석철트리오/안신애/까데호/대니 구/에픽하이 (EPIK HIGH)/이상순/조원선/Tomoaki Baba/BIGYUKI/고상지/최문석/AnnoyingBox/Crush/Alex Sampson/데이브레이크 (Daybreak)/jisokuryClub/Cy Leo/문미향/Damiano David/Gallant/CNBLUE (씨엔블루)/이영지/홍이삭/SUMIN (수민)/Slom/O'KOYE/박지은/UMI/Wouter Hamel/스텔라장 (Stella Jang)/키코 (Kik5o)/김윤아/Tower Of Power/다이나믹 듀오/José James</t>
+    <t>Knxwledge/Mndsgn/Slom/SUMIN (수민)</t>
   </si>
   <si>
     <t>박재범</t>
   </si>
   <si>
-    <t>카이 (KAI)/Crush/로꼬/Kep1er (케플러)/ASH ISLAND/권은비/백호/프로미스나인/이영지/pH-1/청하</t>
-  </si>
-  <si>
-    <t>Shyboiitobii (샤이보이토비)/E SENS/루피 (Loopy)/오왼 (Owen)/식케이 (Sik-K)/김하온 (HAON)/빈첸/양홍원/B.I/NO:EL/한요한/키드밀리 (Kid Milli)/저스디스 (JUSTHIS)/쿠기 (Coogie)/Paul Blanco/JAEHA (재하)/래원 (Layone)/김효은/던말릭 (DON MALIK)/Tabber/노윤하/Fleeky Bang/Skinny Brown/제이통 (J-Tong)/Hash Swan/OSUN (권오선)/Royal 44/Nosun/KHAN/UNEDUCATED KID/ZENE THE ZILLA/KOR KASH/Chin/CK/Louie/Tray B/Polodared/김승민/BILL STAX (빌스택스)/lobonabeat!/oygli/최성/고스트클럽(Ghvstclub)/Wuuslime (우슬라임)/율음/CHERRY BOY 17 (체리보이17)/Street Baby/OLNL (오르내림)/OXYNOVA/JP/KANG HYUK/Ashiroo (아쉬루)/foggyatthebottom/NOWIMYOUNG(나우아임영)</t>
+    <t>siso(시소)</t>
+  </si>
+  <si>
+    <t>사뮈 (Samui)/지윤해</t>
+  </si>
+  <si>
+    <t>The Poles (더 폴스)/리도어 (Redoor)/쏜애플 (THORNAPPLE)/amazarashi/ASH ISLAND/0WAVE/원위 (ONEWE)/GEMINI (제미나이)/Jayci yucca (제이씨 유카)/Kamikita Ken/Tabber/Dragon Pony (드래곤포니)/LUCY/10CM/엔플라잉 (N.Flying)/오월오일 ( 五月五日 )/이무진/jisokuryClub/can’t be blue (캔트비블루)/FRankly(프랭클리)/하현상</t>
+  </si>
+  <si>
+    <t>윤종신</t>
+  </si>
+  <si>
+    <t>난파란</t>
+  </si>
+  <si>
+    <t>유령서점</t>
+  </si>
+  <si>
+    <t>12BH</t>
+  </si>
+  <si>
+    <t>신윤수</t>
+  </si>
+  <si>
+    <t>손을모아</t>
+  </si>
+  <si>
+    <t>양치기소년단/LIF (리프)</t>
+  </si>
+  <si>
+    <t>진민호</t>
+  </si>
+  <si>
+    <t>도영 (DOYOUNG)</t>
+  </si>
+  <si>
+    <t>UNXL(언오피셜)</t>
+  </si>
+  <si>
+    <t>RYE</t>
+  </si>
+  <si>
+    <t>paulkyte (폴카이트)</t>
+  </si>
+  <si>
+    <t>너드커넥션 (Nerd Connection)/김사월/박소은/정우/연정 (YEONJEONG)/행간소음</t>
+  </si>
+  <si>
+    <t>음율</t>
+  </si>
+  <si>
+    <t>팔로알토 (Paloalto)</t>
+  </si>
+  <si>
+    <t>자우림/Glen Check/The Poles (더 폴스)/리도어 (Redoor)/Snake Chicken Soup/원위 (ONEWE)/IDIOTAPE (이디오테잎)/이승윤/터치드(TOUCHED)/10CM/wave to earth/로맨틱펀치 (Romantic Punch)/신인류/엔플라잉 (N.Flying)/오월오일 ( 五月五日 )/유다빈밴드/윤마치 (MRCH)/카더가든/한로로</t>
+  </si>
+  <si>
+    <t>비공정</t>
+  </si>
+  <si>
+    <t>블랙홀 (Black Hole)</t>
+  </si>
+  <si>
+    <t>레드벨벳-아이린&amp;슬기/Red Velvet (레드벨벳)/아이린 (IRENE)/슬기 (SEULGI)</t>
+  </si>
+  <si>
+    <t>오왠 (O.WHEN)</t>
+  </si>
+  <si>
+    <t>옥상달빛/요조/강아솔/장들레/Sun The Lily (썬더릴리)/Luca minor</t>
+  </si>
+  <si>
+    <t>브로큰 발렌타인 (Broken Valentine)</t>
+  </si>
+  <si>
+    <t>구원찬/샘김 (Sam Kim)/Soul delivery/Q the trumpet/Dabin Ryu (류다빈)</t>
+  </si>
+  <si>
+    <t>yonglee &amp; the DOLTANG</t>
+  </si>
+  <si>
+    <t>유발이 (U.BAR.E)</t>
+  </si>
+  <si>
+    <t>극동아시아타이거즈</t>
+  </si>
+  <si>
+    <t>Remnants Of The Fallen/Vassline/메써드/DIABLO (디아블로)</t>
+  </si>
+  <si>
+    <t>Luca minor/Sun The Lily (썬더릴리)</t>
+  </si>
+  <si>
+    <t>homezone</t>
+  </si>
+  <si>
+    <t>이지카이트 (Izykite)</t>
+  </si>
+  <si>
+    <t>두번째달</t>
+  </si>
+  <si>
+    <t>에일리(Ailee)/김원준/디바/태사자/박미경/영턱스클럽/김현정/스페이스 에이/현진영/이하늘/마이티 마우스/군조크루</t>
+  </si>
+  <si>
+    <t>데카당</t>
+  </si>
+  <si>
+    <t>Hasegawa Yohei/김뜻돌/Balming Tiger/The Quiett/KIRARA (키라라)</t>
+  </si>
+  <si>
+    <t>고고학 (Gogohawk)/유령서점</t>
+  </si>
+  <si>
+    <t>브로콜리너마저</t>
+  </si>
+  <si>
+    <t>도유카 (doyouka)</t>
+  </si>
+  <si>
+    <t>사공 (Sagong)/산만한시선</t>
+  </si>
+  <si>
+    <t>신승은</t>
+  </si>
+  <si>
+    <t>몽니</t>
+  </si>
+  <si>
+    <t>중식이</t>
+  </si>
+  <si>
+    <t>あたらよ</t>
+  </si>
+  <si>
+    <t>피달소 (Pidalso)</t>
+  </si>
+  <si>
+    <t>신해경</t>
+  </si>
+  <si>
+    <t>엔분의일 (1/N)</t>
+  </si>
+  <si>
+    <t>더베인 (THE VANE)</t>
+  </si>
+  <si>
+    <t>dsel</t>
+  </si>
+  <si>
+    <t>Leaveourtears</t>
+  </si>
+  <si>
+    <t>Monday Off With Bluesy/Confined White (컨파인드 화이트)</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>홍크</t>
+  </si>
+  <si>
+    <t>Kings Of Convenience</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Kirk Fletcher/리치맨과 그루브나이스</t>
+  </si>
+  <si>
+    <t>다양성/LUAMEL (루아멜)</t>
+  </si>
+  <si>
+    <t>마인드유</t>
+  </si>
+  <si>
+    <t>차차(Cha Cha)/Penten (펜텐)</t>
+  </si>
+  <si>
+    <t>참깨와 솜사탕</t>
+  </si>
+  <si>
+    <t>HeMeets</t>
+  </si>
+  <si>
+    <t>기쿠하시</t>
+  </si>
+  <si>
+    <t>Bump2Soul</t>
   </si>
   <si>
     <t>NCT WISH/ATEEZ(에이티즈)/Hearts2Hearts (하츠투하츠)/LUCY/QWER/Dragon Pony (드래곤포니)/SUPER JUNIOR (슈퍼주니어)/WayV/TREASURE (트레저)/P1Harmony/Billlie (빌리)/수호 (SUHO)/10-FEET/대성/KiiiKiii (키키)</t>
   </si>
   <si>
-    <t>Knxwledge/Mndsgn/Slom/SUMIN (수민)</t>
-  </si>
-  <si>
-    <t>NCT DREAM</t>
-  </si>
-  <si>
-    <t>siso(시소)</t>
-  </si>
-  <si>
-    <t>사뮈 (Samui)/지윤해</t>
-  </si>
-  <si>
-    <t>윤종신</t>
-  </si>
-  <si>
-    <t>손을모아</t>
-  </si>
-  <si>
-    <t>팔로알토 (Paloalto)</t>
-  </si>
-  <si>
-    <t>신윤수</t>
-  </si>
-  <si>
-    <t>양치기소년단/LIF (리프)</t>
-  </si>
-  <si>
-    <t>The Poles (더 폴스)/리도어 (Redoor)/쏜애플 (THORNAPPLE)/amazarashi/ASH ISLAND/0WAVE/원위 (ONEWE)/GEMINI (제미나이)/Jayci yucca (제이씨 유카)/Kamikita Ken/Tabber/Dragon Pony (드래곤포니)/LUCY/10CM/엔플라잉 (N.Flying)/오월오일 ( 五月五日 )/이무진/jisokuryClub/can’t be blue (캔트비블루)/FRankly(프랭클리)/하현상</t>
-  </si>
-  <si>
-    <t>유령서점</t>
-  </si>
-  <si>
-    <t>진민호</t>
-  </si>
-  <si>
-    <t>자우림/Glen Check/The Poles (더 폴스)/리도어 (Redoor)/Snake Chicken Soup/원위 (ONEWE)/IDIOTAPE (이디오테잎)/이승윤/터치드(TOUCHED)/10CM/wave to earth/로맨틱펀치 (Romantic Punch)/신인류/엔플라잉 (N.Flying)/오월오일 ( 五月五日 )/유다빈밴드/윤마치 (MRCH)/카더가든/한로로</t>
-  </si>
-  <si>
-    <t>12BH</t>
-  </si>
-  <si>
-    <t>음율</t>
-  </si>
-  <si>
-    <t>UNXL(언오피셜)</t>
-  </si>
-  <si>
-    <t>브로큰 발렌타인 (Broken Valentine)</t>
-  </si>
-  <si>
-    <t>구원찬/샘김 (Sam Kim)/Soul delivery/Q the trumpet/Dabin Ryu (류다빈)</t>
-  </si>
-  <si>
-    <t>RYE</t>
-  </si>
-  <si>
-    <t>도영 (DOYOUNG)</t>
-  </si>
-  <si>
-    <t>비공정</t>
-  </si>
-  <si>
-    <t>너드커넥션 (Nerd Connection)/김사월/박소은/정우/연정 (YEONJEONG)/행간소음</t>
-  </si>
-  <si>
-    <t>yonglee &amp; the DOLTANG</t>
-  </si>
-  <si>
-    <t>유발이 (U.BAR.E)</t>
-  </si>
-  <si>
-    <t>Remnants Of The Fallen/Vassline/메써드/DIABLO (디아블로)</t>
-  </si>
-  <si>
-    <t>난파란</t>
-  </si>
-  <si>
-    <t>극동아시아타이거즈</t>
-  </si>
-  <si>
-    <t>오왠 (O.WHEN)</t>
-  </si>
-  <si>
-    <t>homezone</t>
-  </si>
-  <si>
-    <t>블랙홀 (Black Hole)</t>
-  </si>
-  <si>
-    <t>두번째달</t>
-  </si>
-  <si>
-    <t>몽니</t>
-  </si>
-  <si>
-    <t>에일리(Ailee)/김원준/디바/태사자/박미경/영턱스클럽/김현정/스페이스 에이/현진영/이하늘/마이티 마우스/군조크루</t>
-  </si>
-  <si>
-    <t>신승은</t>
-  </si>
-  <si>
-    <t>중식이</t>
-  </si>
-  <si>
-    <t>데카당</t>
-  </si>
-  <si>
-    <t>엔분의일 (1/N)</t>
-  </si>
-  <si>
-    <t>Luca minor/Sun The Lily (썬더릴리)</t>
-  </si>
-  <si>
-    <t>あたらよ</t>
-  </si>
-  <si>
-    <t>이지카이트 (Izykite)</t>
-  </si>
-  <si>
-    <t>Kings Of Convenience</t>
-  </si>
-  <si>
-    <t>Bump2Soul</t>
-  </si>
-  <si>
-    <t>HeMeets</t>
-  </si>
-  <si>
-    <t>피달소 (Pidalso)</t>
-  </si>
-  <si>
-    <t>사공 (Sagong)/산만한시선</t>
-  </si>
-  <si>
-    <t>paulkyte (폴카이트)</t>
-  </si>
-  <si>
-    <t>dsel</t>
-  </si>
-  <si>
-    <t>참깨와 솜사탕</t>
-  </si>
-  <si>
-    <t>109</t>
+    <t>김승주</t>
+  </si>
+  <si>
+    <t>이대원/정숙인</t>
+  </si>
+  <si>
+    <t>담담</t>
+  </si>
+  <si>
+    <t>Shinsei kamattechan/Ruru (루루)</t>
+  </si>
+  <si>
+    <t>Men And Them</t>
+  </si>
+  <si>
+    <t>문없는집</t>
+  </si>
+  <si>
+    <t>중식이/하퍼스 (Hoppers)</t>
+  </si>
+  <si>
+    <t>영재</t>
+  </si>
+  <si>
+    <t>베리코이버니 (verycoybunny)</t>
+  </si>
+  <si>
+    <t>디어클라우드</t>
+  </si>
+  <si>
+    <t>FRankly(프랭클리)</t>
+  </si>
+  <si>
+    <t>켄(KEN)</t>
+  </si>
+  <si>
+    <t>루시드폴/정마리</t>
+  </si>
+  <si>
+    <t>LET ME KNOW</t>
+  </si>
+  <si>
+    <t>JVKE</t>
   </si>
   <si>
     <t>zunhozoon (준호준)</t>
   </si>
   <si>
-    <t>Leaveourtears</t>
-  </si>
-  <si>
-    <t>LET ME KNOW</t>
-  </si>
-  <si>
-    <t>브로콜리너마저</t>
-  </si>
-  <si>
-    <t>중식이/하퍼스 (Hoppers)</t>
-  </si>
-  <si>
-    <t>신해경</t>
-  </si>
-  <si>
-    <t>Monday Off With Bluesy/Confined White (컨파인드 화이트)</t>
-  </si>
-  <si>
-    <t>더베인 (THE VANE)</t>
-  </si>
-  <si>
-    <t>옥상달빛/요조/강아솔/장들레/Sun The Lily (썬더릴리)/Luca minor</t>
-  </si>
-  <si>
-    <t>Kiwi</t>
-  </si>
-  <si>
-    <t>홍크</t>
-  </si>
-  <si>
-    <t>Kirk Fletcher/리치맨과 그루브나이스</t>
-  </si>
-  <si>
-    <t>다양성/LUAMEL (루아멜)</t>
-  </si>
-  <si>
-    <t>마인드유</t>
-  </si>
-  <si>
-    <t>고고학 (Gogohawk)/유령서점</t>
-  </si>
-  <si>
-    <t>도유카 (doyouka)</t>
-  </si>
-  <si>
-    <t>차차(Cha Cha)/Penten (펜텐)</t>
-  </si>
-  <si>
-    <t>Hasegawa Yohei/김뜻돌/Balming Tiger/The Quiett/KIRARA (키라라)</t>
-  </si>
-  <si>
-    <t>기쿠하시</t>
-  </si>
-  <si>
-    <t>레드벨벳-아이린&amp;슬기/Red Velvet (레드벨벳)/아이린 (IRENE)/슬기 (SEULGI)</t>
-  </si>
-  <si>
-    <t>김승주</t>
-  </si>
-  <si>
-    <t>이대원/정숙인</t>
-  </si>
-  <si>
-    <t>담담</t>
-  </si>
-  <si>
-    <t>Shinsei kamattechan/Ruru (루루)</t>
-  </si>
-  <si>
-    <t>Men And Them</t>
-  </si>
-  <si>
-    <t>문없는집</t>
-  </si>
-  <si>
-    <t>영재</t>
-  </si>
-  <si>
-    <t>베리코이버니 (verycoybunny)</t>
-  </si>
-  <si>
-    <t>디어클라우드</t>
-  </si>
-  <si>
-    <t>FRankly(프랭클리)</t>
-  </si>
-  <si>
-    <t>켄(KEN)</t>
-  </si>
-  <si>
-    <t>루시드폴/정마리</t>
-  </si>
-  <si>
-    <t>JVKE</t>
-  </si>
-  <si>
     <t>박효신/카이/전동석/이지혜/송은혜/장혜린/민영기/홍경수/리사/전수미/윤사봉/박시원/임정모/문성혁/김주원/황혜민/최예원/정영재/김희현/김태석</t>
   </si>
   <si>
@@ -2329,60 +2329,60 @@
     <t>조풍래/장지후/최민우/박영수/기세중/선한국</t>
   </si>
   <si>
+    <t>박강현/고은성/정택운/이창섭/정선아/유리아/손승연/최민철/심재현/최정원/하은섬/이종문/전재현/박광선/조성린</t>
+  </si>
+  <si>
     <t>김소향/김지우/김히어라/정유지/전수미/장은아/아이키/이아름솔/이지연/박선영/박시인/허윤슬/유연정</t>
   </si>
   <si>
-    <t>박강현/고은성/정택운/이창섭/정선아/유리아/손승연/최민철/심재현/최정원/하은섬/이종문/전재현/박광선/조성린</t>
+    <t>위수 (WISUE)</t>
   </si>
   <si>
     <t>IN2IT (인투잇)</t>
   </si>
   <si>
+    <t>정승환</t>
+  </si>
+  <si>
     <t>로운</t>
   </si>
   <si>
-    <t>정승환</t>
-  </si>
-  <si>
-    <t>위수 (WISUE)</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>120분</t>
   </si>
   <si>
+    <t>150분</t>
+  </si>
+  <si>
+    <t>660분</t>
+  </si>
+  <si>
     <t>100분</t>
   </si>
   <si>
-    <t>150분</t>
-  </si>
-  <si>
-    <t>660분</t>
+    <t>600분</t>
+  </si>
+  <si>
+    <t>540분</t>
   </si>
   <si>
     <t>100분 (인터미션 10분)</t>
   </si>
   <si>
-    <t>540분</t>
-  </si>
-  <si>
-    <t>600분</t>
-  </si>
-  <si>
     <t>80분</t>
   </si>
   <si>
+    <t>500분</t>
+  </si>
+  <si>
+    <t>70분</t>
+  </si>
+  <si>
     <t>90분</t>
   </si>
   <si>
-    <t>500분</t>
-  </si>
-  <si>
-    <t>70분</t>
-  </si>
-  <si>
     <t>110분</t>
   </si>
   <si>
@@ -2392,15 +2392,15 @@
     <t>300분 (인터미션 20분 포함)</t>
   </si>
   <si>
+    <t>300분</t>
+  </si>
+  <si>
     <t>75분</t>
   </si>
   <si>
     <t>180분</t>
   </si>
   <si>
-    <t>300분</t>
-  </si>
-  <si>
     <t>460분</t>
   </si>
   <si>
@@ -2413,18 +2413,18 @@
     <t>170분 (인터미션 20분 포함)</t>
   </si>
   <si>
+    <t>145분 (인터미션 15분 포함)</t>
+  </si>
+  <si>
     <t>105분</t>
   </si>
   <si>
-    <t>145분 (인터미션 15분 포함)</t>
+    <t>160분 (인터미션 20분 포함)</t>
   </si>
   <si>
     <t>150분 (인터미션 20분)</t>
   </si>
   <si>
-    <t>160분 (인터미션 20분 포함)</t>
-  </si>
-  <si>
     <t>140분 (인터미션 15분 포함)</t>
   </si>
   <si>
@@ -2476,348 +2476,348 @@
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025042516292753e9d4fe-b5c3-4b89-a5ca-d848547ec0c6.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025050812125542205de9-e8df-4c83-80b7-9ca23a72d497.png/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250502111221cd54e04d-7e7e-4b2e-9f42-4956ee17c12f.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250516171538e1d6dab0-95a7-480c-9c22-af604f9c42e3.png/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025051609062503579260-6442-42d7-baa1-f9dde30f893a.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250519095900b8a2cef3-246b-4258-849e-3174e98d32ac.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025051609062503579260-6442-42d7-baa1-f9dde30f893a.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025050812125542205de9-e8df-4c83-80b7-9ca23a72d497.png/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250516171538e1d6dab0-95a7-480c-9c22-af604f9c42e3.png/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250502111221cd54e04d-7e7e-4b2e-9f42-4956ee17c12f.jpg/melon/strip/true/quality/50</t>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250523141820d67abe50-3e84-44ae-9714-6d717a79e816.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250521105411f8367e86-32da-46c2-a70b-554a8effea00.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505210917345a9ed603-a118-48fe-ba12-7d99bedad926.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/03/2025030717494442f5126c-b98f-4e90-996b-f2c2142938d0.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250430170012e614c093-409c-45b7-a171-0407f00999a0.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/02/20250206173223276f0c3a-52e3-4da9-be81-57d311e12c30.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250515134857cefc3ea9-ca20-4e01-ad20-84b8eefd797a.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/03/2025030717494442f5126c-b98f-4e90-996b-f2c2142938d0.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250523141820d67abe50-3e84-44ae-9714-6d717a79e816.jpg/melon/strip/true/quality/50</t>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/03/202503251447355c25690f-ba87-40da-82ff-f9a30ef33e6e.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505221634338bd60aa4-4426-435d-b0f9-622088bb7316.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/03/202503181721435f894323-28eb-4116-aad8-68588f3e151f.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/02/20250206173223276f0c3a-52e3-4da9-be81-57d311e12c30.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505210917345a9ed603-a118-48fe-ba12-7d99bedad926.jpg/melon/strip/true/quality/50</t>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505201054354799eb5b-c93f-4584-902c-5f967e4147d1.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505150916576acb80d7-0513-4d2e-a5b0-529158325501.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250514133056a8e917b9-98f0-4abc-9d47-72a2213773ba.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250509111741f8c533d9-0779-4598-90e7-10cfa0a55db4.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025051313480233e3dd6d-70c2-483a-9db4-3a4a4504b039.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250516105637691ebee8-d428-42ff-a9e9-9dca7359d7cc.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250514112008b9319ffc-7fda-4591-a18e-14704f536dde.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250516133743e364f201-b735-41de-85f4-754ff2e0ccec.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250513111816355ea0f5-d000-4eae-9cf1-05781cf1d88b.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250514151849923cd1e3-f74a-489e-ad21-8e129aaca3cd.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505121936345bb4e8f7-de61-41b7-902b-c43869ef8f9b.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025040113582166ea84dd-d777-4efe-a25c-788926b89349.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505131809373e2f796b-187d-4471-95a1-9986030251db.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250430120017e5e04ff2-ae71-4e76-b135-779145d7ee88.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505140959014b244e16-203d-40d1-ba97-4050148452f4.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250513094826b455d6de-e6da-43e4-9ec9-e620c59d5fce.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250509143140983cf847-0f45-4e7f-b03a-4c3e54136d20.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025050914172486b45080-6f8c-460c-951c-d7c5cb164495.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505081604085474237a-af4b-4c0e-b910-6115e6299cc8.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250429111520a4a6af59-1b7b-419e-bc11-f57520f6524e.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250508112050c6cf2e75-5856-4053-9e69-991f1b1bb3a6.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/03/20250306111536b109ccea-d7f5-40d9-9c06-fb2692abd12c.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250508151507bf94f71e-d787-46cc-9f5e-9d55368080aa.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505141530034a60a656-08e8-4a75-8bb3-07f6b9d533c5.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250509135422759810cd-8477-4e03-abb0-2d8daa42657d.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250414113240c2aac203-af14-4e06-b7d4-7bf3e71e5e02.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504301426271fb6e04c-e982-442e-98b9-e60c7b9251f7.png/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505141609366ab5f0d5-dd9b-4895-94f0-2796153ad465.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025051217593293c19b92-d57d-48e7-940e-87faad5063b4.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250429152147a4efbc5a-55e3-4221-8a24-7f844113c1e9.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025051210561195e05dae-8630-437b-97d3-ddc8279ca143.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250522152417f66bae8b-ef20-4c44-911f-e95a971fe515.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250519142513f2390dc5-2027-4cb3-a69b-0aa69eb6587a.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250416152833d7fc3497-2b94-4e40-9544-3770c13101c9.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504300908032829cea7-e4b8-4d43-a93c-9a91f324038d.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025051518344899143d35-4b2f-4581-9d84-ee2a5746bd66.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025042411061244992e85-60bf-46b0-8b3e-059cc25503e9.png/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025050210192847bb35b9-dd57-4525-a2a6-136881a85053.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505071212012a2ab369-36a6-4ae2-b769-f809c8bd32eb.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/02/20250217103420eefc0681-4ad8-427f-89e7-0f32936d9e5a.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250509160058de7ff7f9-cc4c-43d8-b4bf-9fca04353c93.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250429111442a69dc3db-8c2a-44f5-8f28-a7cd396c4387.png/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025042411423930bee77b-50f6-40a6-b0c2-21278c65f3e3.png/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250421205445ffb84118-a09f-4c2f-8f71-35a38ff99e94.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504221554163556eab4-c891-4519-8c12-301e9197ead3.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025050911123949358f42-da10-4468-9fc7-888da6bd6069.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250507095642bb7c6582-59c0-4e22-a874-888ea0d15516.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025051919002942178745-859d-45d7-8675-db33de1aae2e.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250422120705756fa9d0-e360-49d7-ae56-48a5daa20d1f.png/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250402175710f8d9d568-c181-4f27-a819-8af9e79e59b1.jpeg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250416145726d4a93030-fa5e-43e4-b0af-6acf6ef08ced.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250422120204c1f60861-e41f-443b-97db-6a301686971d.png/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504291105386447e3bd-4664-4b6c-b2ad-8ab266982768.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250424184022100bd6f9-084d-41be-80a7-f41beef2a59f.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504091743336ef052a9-83c6-466c-a0d9-149c569c9944.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250507162648dcd1365f-56cd-4dc3-a59e-aec9a734f6af.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250502084449533df692-2fa2-4681-b4de-7b886d4bc620.png/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250429103950f53a1811-ebd1-4c96-8fee-adaa75238427.png/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250512085745dec06f43-bcd5-4a6a-bdb5-72172ffd755f.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025041809012360ffa981-a8d5-44fa-8243-acf7d87c6223.png/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250428105346baf5dcf7-e0d4-4a62-9084-f0f1cfead687.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025041718255411d4a8e5-7726-44e6-a133-e80b097f6d1c.png/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504291011190ffb7eb9-2319-4de2-a407-a6d8e3d8b104.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025050716431840a49e5a-3e8e-4a5c-9fa2-fea27117eaab.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505121336326d419204-5cc4-477f-918a-c64d03aed5ad.png/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025042418432222b066ad-aacc-445b-9758-2929c915141d.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504221912524390a2e7-5827-4952-9efd-d6d544e01502.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505021803576d0eb09a-fe42-4bfd-aea7-7753d8026718.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504212122282f84f0b0-ca47-42cf-82b0-b8569050bc28.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025041416363183f78e65-3985-43ee-96ae-1244a8aaf44a.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250508171847d2113bb2-dd88-44a9-9f7a-0dc8ce1170c4.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505231413266a983a36-0e71-4497-bbe7-3b4957bdace9.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250509101345741a2670-0a1c-4b2a-8cb6-79af639f3b48.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250429194757dc2077d0-0dc0-443e-bf2a-7a8232d56e3e.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025050210025926b03691-b05d-488e-bda6-b8fa5693958e.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505231354403862d2ee-9212-4f12-989f-46af928cea43.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025050709162569a9ff59-3090-4301-8a21-c9d86ca438a9.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250507201958c993dc31-057e-4e67-8f9a-becbf03d8667.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250516103959c6491cb0-eb8b-4398-ba0a-79126d304c56.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505221634338bd60aa4-4426-435d-b0f9-622088bb7316.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250430170012e614c093-409c-45b7-a171-0407f00999a0.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505201054354799eb5b-c93f-4584-902c-5f967e4147d1.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505150916576acb80d7-0513-4d2e-a5b0-529158325501.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250514133056a8e917b9-98f0-4abc-9d47-72a2213773ba.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025051313480233e3dd6d-70c2-483a-9db4-3a4a4504b039.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250514151849923cd1e3-f74a-489e-ad21-8e129aaca3cd.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250508112050c6cf2e75-5856-4053-9e69-991f1b1bb3a6.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250513094826b455d6de-e6da-43e4-9ec9-e620c59d5fce.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250513111816355ea0f5-d000-4eae-9cf1-05781cf1d88b.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505121936345bb4e8f7-de61-41b7-902b-c43869ef8f9b.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250509111741f8c533d9-0779-4598-90e7-10cfa0a55db4.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250514112008b9319ffc-7fda-4591-a18e-14704f536dde.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025040113582166ea84dd-d777-4efe-a25c-788926b89349.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505131809373e2f796b-187d-4471-95a1-9986030251db.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/03/20250306111536b109ccea-d7f5-40d9-9c06-fb2692abd12c.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250516133743e364f201-b735-41de-85f4-754ff2e0ccec.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250429111520a4a6af59-1b7b-419e-bc11-f57520f6524e.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505140959014b244e16-203d-40d1-ba97-4050148452f4.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250429152147a4efbc5a-55e3-4221-8a24-7f844113c1e9.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025051210561195e05dae-8630-437b-97d3-ddc8279ca143.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250509143140983cf847-0f45-4e7f-b03a-4c3e54136d20.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250430120017e5e04ff2-ae71-4e76-b135-779145d7ee88.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250508151507bf94f71e-d787-46cc-9f5e-9d55368080aa.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505081604085474237a-af4b-4c0e-b910-6115e6299cc8.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250522152417f66bae8b-ef20-4c44-911f-e95a971fe515.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250519142513f2390dc5-2027-4cb3-a69b-0aa69eb6587a.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505141609366ab5f0d5-dd9b-4895-94f0-2796153ad465.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504300908032829cea7-e4b8-4d43-a93c-9a91f324038d.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250516105637691ebee8-d428-42ff-a9e9-9dca7359d7cc.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250416152833d7fc3497-2b94-4e40-9544-3770c13101c9.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504301426271fb6e04c-e982-442e-98b9-e60c7b9251f7.png/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025042411061244992e85-60bf-46b0-8b3e-059cc25503e9.png/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505141530034a60a656-08e8-4a75-8bb3-07f6b9d533c5.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250509135422759810cd-8477-4e03-abb0-2d8daa42657d.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505071212012a2ab369-36a6-4ae2-b769-f809c8bd32eb.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025051919002942178745-859d-45d7-8675-db33de1aae2e.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/02/20250217103420eefc0681-4ad8-427f-89e7-0f32936d9e5a.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250507095642bb7c6582-59c0-4e22-a874-888ea0d15516.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250422120204c1f60861-e41f-443b-97db-6a301686971d.png/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250509160058de7ff7f9-cc4c-43d8-b4bf-9fca04353c93.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250507162648dcd1365f-56cd-4dc3-a59e-aec9a734f6af.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025051518344899143d35-4b2f-4581-9d84-ee2a5746bd66.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250429103950f53a1811-ebd1-4c96-8fee-adaa75238427.png/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250402175710f8d9d568-c181-4f27-a819-8af9e79e59b1.jpeg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025050210192847bb35b9-dd57-4525-a2a6-136881a85053.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025050716431840a49e5a-3e8e-4a5c-9fa2-fea27117eaab.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250507201958c993dc31-057e-4e67-8f9a-becbf03d8667.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025050210025926b03691-b05d-488e-bda6-b8fa5693958e.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504291105386447e3bd-4664-4b6c-b2ad-8ab266982768.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250422120705756fa9d0-e360-49d7-ae56-48a5daa20d1f.png/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025050911123949358f42-da10-4468-9fc7-888da6bd6069.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025050914172486b45080-6f8c-460c-951c-d7c5cb164495.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250512085745dec06f43-bcd5-4a6a-bdb5-72172ffd755f.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250429194757dc2077d0-0dc0-443e-bf2a-7a8232d56e3e.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505121336326d419204-5cc4-477f-918a-c64d03aed5ad.png/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250424184022100bd6f9-084d-41be-80a7-f41beef2a59f.jpg/melon/strip/true/quality/50</t>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/02/20250218140432952f1196-a741-4caa-bbbb-5ab3070dafd5.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250523105849699df974-dd57-448e-8902-f1d7b3860057.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250509171143c89f53cb-2454-4c73-a8b5-ffa35d7b5e0a.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505201853435b9902f2-78f2-47e1-b7c3-a2db041e7a1c.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025040417443149593488-5939-4e86-9473-9df00222d2b6.png/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025052109370450b2562b-abf7-46d3-b743-1776c7758099.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250519171507c80784de-3704-4f7a-b223-0956eea899c1.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025042214250923d7716e-3dfd-41e4-87cd-182c4fb8473c.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025052211393716ad4bef-eea7-4085-a51e-1158bd3f8bfe.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250519173441ecccc842-01fb-4fbb-9453-6e4da1272470.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505211828023b52dd41-42db-476c-80f7-46e4f917ab75.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250523114409c1352c66-abff-4bf7-9fd2-5e12102fde43.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025052216032602819335-a237-4fb8-b251-84c2b5a7a222.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504241836387758b7f7-d435-4ea3-b26c-64dff20e4fde.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250422144507c1fbc9c5-6b66-4335-987d-f2d43ca03b15.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250522105623d7226429-2557-41ee-8e50-aadd686de965.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250424184647fdd761ba-e5cd-4ed6-9a64-71d7113eccd3.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504241849287274191b-1fb9-47af-8100-f3e40a9968d2.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250416111202866db0fc-3626-419c-b51e-9d46ca18a8f4.png/melon/strip/true/quality/50</t>
   </si>
   <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/03/20250312103359d8efa548-aa35-47f5-972b-a18ff0f583e6.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025041809012360ffa981-a8d5-44fa-8243-acf7d87c6223.png/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250422144507c1fbc9c5-6b66-4335-987d-f2d43ca03b15.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250421205445ffb84118-a09f-4c2f-8f71-35a38ff99e94.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025042214250923d7716e-3dfd-41e4-87cd-182c4fb8473c.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504091743336ef052a9-83c6-466c-a0d9-149c569c9944.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250428105346baf5dcf7-e0d4-4a62-9084-f0f1cfead687.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250502084449533df692-2fa2-4681-b4de-7b886d4bc620.png/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025051217593293c19b92-d57d-48e7-940e-87faad5063b4.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025041718255411d4a8e5-7726-44e6-a133-e80b097f6d1c.png/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504212122282f84f0b0-ca47-42cf-82b0-b8569050bc28.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504291011190ffb7eb9-2319-4de2-a407-a6d8e3d8b104.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025042418432222b066ad-aacc-445b-9758-2929c915141d.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/03/202503251447355c25690f-ba87-40da-82ff-f9a30ef33e6e.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504221912524390a2e7-5827-4952-9efd-d6d544e01502.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505021803576d0eb09a-fe42-4bfd-aea7-7753d8026718.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025041416363183f78e65-3985-43ee-96ae-1244a8aaf44a.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025042411423930bee77b-50f6-40a6-b0c2-21278c65f3e3.png/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250508171847d2113bb2-dd88-44a9-9f7a-0dc8ce1170c4.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505231413266a983a36-0e71-4497-bbe7-3b4957bdace9.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504221554163556eab4-c891-4519-8c12-301e9197ead3.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250509101345741a2670-0a1c-4b2a-8cb6-79af639f3b48.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250429111442a69dc3db-8c2a-44f5-8f28-a7cd396c4387.png/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505231354403862d2ee-9212-4f12-989f-46af928cea43.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025050709162569a9ff59-3090-4301-8a21-c9d86ca438a9.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250416145726d4a93030-fa5e-43e4-b0af-6acf6ef08ced.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250414113240c2aac203-af14-4e06-b7d4-7bf3e71e5e02.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/02/20250218140432952f1196-a741-4caa-bbbb-5ab3070dafd5.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250523105849699df974-dd57-448e-8902-f1d7b3860057.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250509171143c89f53cb-2454-4c73-a8b5-ffa35d7b5e0a.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505201853435b9902f2-78f2-47e1-b7c3-a2db041e7a1c.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025040417443149593488-5939-4e86-9473-9df00222d2b6.png/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025052109370450b2562b-abf7-46d3-b743-1776c7758099.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250519171507c80784de-3704-4f7a-b223-0956eea899c1.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025052211393716ad4bef-eea7-4085-a51e-1158bd3f8bfe.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250519173441ecccc842-01fb-4fbb-9453-6e4da1272470.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505211828023b52dd41-42db-476c-80f7-46e4f917ab75.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250523114409c1352c66-abff-4bf7-9fd2-5e12102fde43.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025052216032602819335-a237-4fb8-b251-84c2b5a7a222.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504241836387758b7f7-d435-4ea3-b26c-64dff20e4fde.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250522105623d7226429-2557-41ee-8e50-aadd686de965.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250424184647fdd761ba-e5cd-4ed6-9a64-71d7113eccd3.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504241849287274191b-1fb9-47af-8100-f3e40a9968d2.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250416111202866db0fc-3626-419c-b51e-9d46ca18a8f4.png/melon/strip/true/quality/50</t>
-  </si>
-  <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250430133749be7a23bf-cbdc-4161-89d9-0e291d8ef6f0.png/melon/strip/true/quality/50</t>
   </si>
   <si>
@@ -2827,10 +2827,13 @@
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/03/20250305174642c344f15c-4b09-42f7-a8dd-7f18e8f1273a.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025040310575950e7a0ec-90c1-4f66-ab33-382215881fba.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/03/20250319164854d746338b-eb0c-45fe-8496-95b7afe427ff.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025040310575950e7a0ec-90c1-4f66-ab33-382215881fba.jpg/melon/strip/true/quality/50</t>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504161931080072b91e-bac5-4f3a-ab5a-56d9c13a3811.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/01/202501171042555961e31c-43c4-4999-9771-c4e3c3911e1d.jpg/melon/strip/true/quality/50</t>
@@ -2839,15 +2842,12 @@
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250423194642874c7eda-922b-417a-bd7c-ce62a80eab54.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504161931080072b91e-bac5-4f3a-ab5a-56d9c13a3811.jpg/melon/strip/true/quality/50</t>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/03/20250331151251a3d34a13-752e-44b1-bd73-3dc7a69d35ef.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2023/03/202303171047117fdc060a-8274-4ab8-ab99-990489e4f652.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/03/20250331151251a3d34a13-752e-44b1-bd73-3dc7a69d35ef.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025040311332755683254-d4a5-4296-8caa-a1ec4195f1cb.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
@@ -2878,27 +2878,27 @@
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2024/11/202411261717264b36a3b7-8710-46fb-8c9f-68fcd11458f3.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025043018412273baf7b0-d8dc-4a6a-a0f9-5b6b8529ddd3.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/202504291648349c70de25-d71f-44ef-b898-b8051da03e7f.png/melon/strip/true/quality/50</t>
   </si>
   <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/03/20250305155337e658c322-1b7a-4db6-ae6a-02827393b8a8.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/20250411173046e18413c5-fd82-4fd2-8752-0dd3e8f122d6.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/03/20250305155337e658c322-1b7a-4db6-ae6a-02827393b8a8.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/04/2025043018412273baf7b0-d8dc-4a6a-a0f9-5b6b8529ddd3.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025052217172288290288-0d40-4010-bc9e-56c86ba8be89.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250507113021c4cc5865-6e80-432c-9a27-42278e6abcfd.png/melon/strip/true/quality/50</t>
+  </si>
+  <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/01/20250123164404cdc54852-9361-4c95-be99-e17f7ee2607a.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250507113021c4cc5865-6e80-432c-9a27-42278e6abcfd.png/melon/strip/true/quality/50</t>
-  </si>
-  <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/01/202501171621036c0bcfba-cf60-4a1b-b61b-e9aa3c949352.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
@@ -2959,18 +2959,18 @@
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/20250521150959c3181a40-8034-4e1c-8cc4-880658614646.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025050914470012c0fb52-50e6-46af-beb8-499b49dc6071.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
+    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/03/20250318203006a2bd43d6-0d55-4971-b4ed-7c5e071cd95a.jpg/melon/strip/true/quality/50</t>
+  </si>
+  <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505161040225b5334c0-db03-41f6-b03f-5f167a609a93.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/2025050914470012c0fb52-50e6-46af-beb8-499b49dc6071.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/05/202505161443006465e2b1-4310-4acf-91b2-a248d2f15820.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
-    <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2025/03/20250318203006a2bd43d6-0d55-4971-b4ed-7c5e071cd95a.jpg/melon/strip/true/quality/50</t>
-  </si>
-  <si>
     <t>https://cdnticket.melon.co.kr/resource/image/upload/product/2024/10/20241002110746bf94dd6e-58ae-47ee-8dfd-cc44711b1fde.jpg/melon/strip/true/quality/50</t>
   </si>
   <si>
@@ -2995,264 +2995,264 @@
     <t>2025년 7월 19일(토) ~ 7월 20일(일) 토 오후 6시/일 오후 4시</t>
   </si>
   <si>
+    <t>2025년 6월 21일(토) ~ 6월 22일(일) 토 오후 6시/일 오후 4시</t>
+  </si>
+  <si>
+    <t>2025년 5월 30일(금) 오후 7시</t>
+  </si>
+  <si>
+    <t>2025년 9월 13일(토) ~ 9월 14일(일) 토, 일 오전 11시</t>
+  </si>
+  <si>
+    <t>2025년 6월 28일(토) ~ 6월 29일(일) 토 오후 7시/일 오후 6시</t>
+  </si>
+  <si>
     <t>2025년 6월 14일(토) ~ 6월 15일(일) 토 오후 5시/일 오후 4시</t>
   </si>
   <si>
-    <t>2025년 6월 28일(토) ~ 6월 29일(일) 토 오후 7시/일 오후 6시</t>
-  </si>
-  <si>
-    <t>2025년 6월 21일(토) ~ 6월 22일(일) 토 오후 6시/일 오후 4시</t>
-  </si>
-  <si>
-    <t>2025년 9월 13일(토) ~ 9월 14일(일) 토, 일 오전 11시</t>
-  </si>
-  <si>
-    <t>2025년 5월 30일(금) 오후 7시</t>
+    <t>2025년 5월 30일(금) ~ 6월 1일(일) 추후 공지</t>
   </si>
   <si>
     <t>2025년 6월 21일(토) 오후 6시</t>
   </si>
   <si>
+    <t>2025년 6월 28일(토) ~ 6월 29일(일) 오후 12시</t>
+  </si>
+  <si>
+    <t>2025년 5월 23일(금) ~ 5월 25일(일) 금 오후 7시/토 오후 6시/일 오후 5시 25분</t>
+  </si>
+  <si>
+    <t>2025년 7월 10일(목) ~ 7월 12일(토) 목, 금 오후 7시/토 오후 6시</t>
+  </si>
+  <si>
+    <t>2025년 7월 4일(금요일) ~ 7월 6일(일요일) 오후 1시 ~ 밤 10시 * 공연시간은 추후 변경될 수 있습니다.</t>
+  </si>
+  <si>
     <t>2025년 6월 21일(토) ~ 6월 22일(일) 오후 5시</t>
   </si>
   <si>
-    <t>2025년 5월 23일(금) ~ 5월 25일(일) 금 오후 7시/토 오후 6시/일 오후 5시 25분</t>
-  </si>
-  <si>
-    <t>2025년 5월 30일(금) ~ 6월 1일(일) 추후 공지</t>
+    <t>2025년 5월 24일(토) ~ 5월 25일(일) 토 오후 5시/일 오후 4시</t>
+  </si>
+  <si>
+    <t>2025년 6월 5일(목) 오후 7시 30분</t>
   </si>
   <si>
     <t>2025년 5월 24일(토) ~ 5월 25일(일) 토 오후 6시/일 오후 5시</t>
   </si>
   <si>
-    <t>2025년 7월 4일(금요일) ~ 7월 6일(일요일) 오후 1시 ~ 밤 10시 * 공연시간은 추후 변경될 수 있습니다.</t>
-  </si>
-  <si>
-    <t>2025년 6월 28일(토) ~ 6월 29일(일) 오후 12시</t>
+    <t>2025년 6월 28일(토) 오후 7시</t>
+  </si>
+  <si>
+    <t>2025년 6월 15일(일) 오후 7시</t>
+  </si>
+  <si>
+    <t>2025년 5월 31일(토) 오후 7시</t>
+  </si>
+  <si>
+    <t>2025년 7월 19일(토) ~ 7월 20일(일) 오후 1시 * 공연시간 및 러닝타임에 변동이 있을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>2025년 7월 6일(일) 오후 4시</t>
+  </si>
+  <si>
+    <t>2025년 6월 7일(토) 오후 7시</t>
+  </si>
+  <si>
+    <t>2025년 6월 9일(월) 오후 8시</t>
+  </si>
+  <si>
+    <t>2025년 6월 13일(금) 오후 8시</t>
+  </si>
+  <si>
+    <t>2025년 6월 23일(월) 오후 8시</t>
+  </si>
+  <si>
+    <t>2025년 6월 14일(토) 오후 6시</t>
+  </si>
+  <si>
+    <t>2025년 6월 19일(목) 오후 8시</t>
+  </si>
+  <si>
+    <t>2025년 6월 7일(토) ~ 6월 8일(일) 토 오후 5시/일 오후 4시</t>
+  </si>
+  <si>
+    <t>2025년 6월 20일(금) 오후 8시</t>
+  </si>
+  <si>
+    <t>2025년 6월 13일(금) ~ 6월 15일(일) 금 오후 8시/토 오후 6시/일 오후 4시</t>
+  </si>
+  <si>
+    <t>2025년 6월 6일(금) 오후 6시</t>
+  </si>
+  <si>
+    <t>2025년 5월 26일(월) 오후 8시</t>
+  </si>
+  <si>
+    <t>2025년 5월 30일(금) ~ 6월 1일(일) 금 오후 8시/토 오후 7시/일 오후 6시</t>
+  </si>
+  <si>
+    <t>2025년 6월 7일(토) ~ 6월 8일(일) 토 오후 7시/일 오후 5시</t>
+  </si>
+  <si>
+    <t>2025년 6월 14일(토) 오후 5시</t>
+  </si>
+  <si>
+    <t>2025년 5월 24일(토) ~ 5월 25일(일) 오후 12시 ※ 예매 시 보여지는 공연시간은 임의의 시간이며, 추후 변경될 수 있습니다. 예매 시 유의바랍니다.</t>
+  </si>
+  <si>
+    <t>2025년 6월 22일(일) 오후 5시</t>
+  </si>
+  <si>
+    <t>2025년 6월 15일(일) 오후 5시</t>
+  </si>
+  <si>
+    <t>2025년 6월 14일(토) ~ 6월 15일(일) 토 오후 6시/일 오후 4시</t>
+  </si>
+  <si>
+    <t>2025년 5월 31일(토) ~ 6월 1일(일) 토 오후 6시/일 오후 5시</t>
+  </si>
+  <si>
+    <t>2025년 6월 1일(일) 오후 4시</t>
+  </si>
+  <si>
+    <t>2025년 6월 6일(금) 오후 5시</t>
+  </si>
+  <si>
+    <t>2025년 6월 7일(토) ~ 6월 8일(일) 토 오후 7시/일 오후 6시</t>
+  </si>
+  <si>
+    <t>2025년 6월 29일(일) 오후 5시</t>
+  </si>
+  <si>
+    <t>2025년 6월 28일(토) 오후 6시</t>
+  </si>
+  <si>
+    <t>2025년 6월 8일(일) 오후 5시</t>
+  </si>
+  <si>
+    <t>2025년 6월 8일(일) 오후 5시﻿</t>
+  </si>
+  <si>
+    <t>2025년 5월 24일(토) ~ 5월 25일(일) 오후 3시, 7시</t>
+  </si>
+  <si>
+    <t>2025년 5월 23일(금) ~ 5월 24일(토) 금 오후 8시/토 오후 7시</t>
+  </si>
+  <si>
+    <t>2025년 5월 31일(토) 오후 5시</t>
+  </si>
+  <si>
+    <t>2025년 5월 27일(화) 오후 8시</t>
+  </si>
+  <si>
+    <t>2025년 5월 24일(토) 오후 7시</t>
+  </si>
+  <si>
+    <t>2025년 6월 1일(일) 오후 5시</t>
+  </si>
+  <si>
+    <t>1회차: 2025년 6월 04일 수요일 저녁 8시 2회차: 2025년 6월 12일 목요일 저녁 8시</t>
+  </si>
+  <si>
+    <t>2025년 5월 24일(토) 오후 6시</t>
+  </si>
+  <si>
+    <t>2025년 5월 25일(일) 오후 8시</t>
+  </si>
+  <si>
+    <t>2025년 6월 7일(토) 오후 6시</t>
+  </si>
+  <si>
+    <t>2025년 6월 28일(토) 오후 3시, 6시 30분</t>
+  </si>
+  <si>
+    <t>2025년 7월 11일(금) ~ 7월 12일(토) 금 오후 7시 30분/토 오후 6시</t>
+  </si>
+  <si>
+    <t>2025년 6월 4일(수) 오후 8시</t>
+  </si>
+  <si>
+    <t>2025년 6월 5일(목) 오후 8시</t>
+  </si>
+  <si>
+    <t>2025년 5월 30일(금) 오후 8시</t>
+  </si>
+  <si>
+    <t>2025년 5월 31일(토) 오후 6시</t>
+  </si>
+  <si>
+    <t>2025년 6월 2일(월) 오후 8시</t>
+  </si>
+  <si>
+    <t>2025년 6월 7일(토) ~ 6월 8일(일) 토 오후 6시/일 오후 5시</t>
+  </si>
+  <si>
+    <t>2025년 8월 8일(금) ~ 8월 9일(토) 금 오후 7시 30분/토 오후 3시</t>
+  </si>
+  <si>
+    <t>2025년 5월 25일(일) 오후 7시</t>
+  </si>
+  <si>
+    <t>2025년 5월 25일(일) 오후 6시</t>
+  </si>
+  <si>
+    <t>2025년 5월 25일(일) 오후 5시</t>
+  </si>
+  <si>
+    <t>2025년 5월 30일(금) 오후 7시 30분</t>
+  </si>
+  <si>
+    <t>2025년 5월 31일(토) 오후 3시</t>
+  </si>
+  <si>
+    <t>2025년 6월 3일(화) 오후 2시, 5시</t>
   </si>
   <si>
     <t>2025년 6월 11일(수) ~ 6월 13일(금) 수요일 오후 7시/목요일 오후 6시 30분/금요일 오후 7시</t>
   </si>
   <si>
-    <t>2025년 6월 5일(목) 오후 7시 30분</t>
-  </si>
-  <si>
-    <t>2025년 7월 10일(목) ~ 7월 12일(토) 목, 금 오후 7시/토 오후 6시</t>
-  </si>
-  <si>
-    <t>2025년 6월 28일(토) 오후 7시</t>
-  </si>
-  <si>
-    <t>2025년 6월 15일(일) 오후 7시</t>
-  </si>
-  <si>
-    <t>2025년 5월 31일(토) 오후 7시</t>
-  </si>
-  <si>
-    <t>2025년 7월 6일(일) 오후 4시</t>
-  </si>
-  <si>
-    <t>2025년 6월 14일(토) 오후 6시</t>
-  </si>
-  <si>
-    <t>2025년 6월 14일(토) 오후 5시</t>
-  </si>
-  <si>
-    <t>2025년 6월 23일(월) 오후 8시</t>
-  </si>
-  <si>
-    <t>2025년 6월 19일(목) 오후 8시</t>
-  </si>
-  <si>
-    <t>2025년 7월 19일(토) ~ 7월 20일(일) 오후 1시 * 공연시간 및 러닝타임에 변동이 있을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>2025년 6월 9일(월) 오후 8시</t>
-  </si>
-  <si>
-    <t>2025년 6월 7일(토) ~ 6월 8일(일) 토 오후 5시/일 오후 4시</t>
-  </si>
-  <si>
-    <t>2025년 6월 20일(금) 오후 8시</t>
-  </si>
-  <si>
-    <t>2025년 5월 24일(토) ~ 5월 25일(일) 오후 12시 ※ 예매 시 보여지는 공연시간은 임의의 시간이며, 추후 변경될 수 있습니다. 예매 시 유의바랍니다.</t>
-  </si>
-  <si>
-    <t>2025년 6월 13일(금) 오후 8시</t>
-  </si>
-  <si>
-    <t>2025년 6월 7일(토) ~ 6월 8일(일) 토 오후 7시/일 오후 5시</t>
-  </si>
-  <si>
-    <t>2025년 6월 6일(금) 오후 6시</t>
-  </si>
-  <si>
-    <t>2025년 6월 6일(금) 오후 5시</t>
-  </si>
-  <si>
-    <t>2025년 6월 7일(토) ~ 6월 8일(일) 토 오후 7시/일 오후 6시</t>
-  </si>
-  <si>
-    <t>2025년 6월 13일(금) ~ 6월 15일(일) 금 오후 8시/토 오후 6시/일 오후 4시</t>
-  </si>
-  <si>
-    <t>2025년 6월 22일(일) 오후 5시</t>
-  </si>
-  <si>
-    <t>2025년 5월 30일(금) ~ 6월 1일(일) 금 오후 8시/토 오후 7시/일 오후 6시</t>
-  </si>
-  <si>
-    <t>2025년 6월 29일(일) 오후 5시</t>
-  </si>
-  <si>
-    <t>2025년 6월 1일(일) 오후 4시</t>
-  </si>
-  <si>
-    <t>2025년 6월 8일(일) 오후 5시</t>
-  </si>
-  <si>
-    <t>2025년 6월 7일(토) 오후 7시</t>
-  </si>
-  <si>
-    <t>2025년 6월 28일(토) 오후 6시</t>
-  </si>
-  <si>
-    <t>2025년 5월 31일(토) ~ 6월 1일(일) 토 오후 6시/일 오후 5시</t>
-  </si>
-  <si>
-    <t>2025년 5월 24일(토) ~ 5월 25일(일) 오후 3시, 7시</t>
-  </si>
-  <si>
-    <t>2025년 6월 15일(일) 오후 5시</t>
-  </si>
-  <si>
-    <t>1회차: 2025년 6월 04일 수요일 저녁 8시 2회차: 2025년 6월 12일 목요일 저녁 8시</t>
-  </si>
-  <si>
-    <t>2025년 6월 1일(일) 오후 5시</t>
-  </si>
-  <si>
-    <t>2025년 6월 7일(토) 오후 6시</t>
-  </si>
-  <si>
-    <t>2025년 5월 23일(금) ~ 5월 24일(토) 금 오후 8시/토 오후 7시</t>
-  </si>
-  <si>
-    <t>2025년 6월 4일(수) 오후 8시</t>
-  </si>
-  <si>
-    <t>2025년 6월 8일(일) 오후 5시﻿</t>
-  </si>
-  <si>
-    <t>2025년 5월 26일(월) 오후 8시</t>
-  </si>
-  <si>
-    <t>2025년 5월 25일(일) 오후 8시</t>
-  </si>
-  <si>
-    <t>2025년 6월 2일(월) 오후 8시</t>
-  </si>
-  <si>
-    <t>2025년 6월 28일(토) 오후 3시, 6시 30분</t>
-  </si>
-  <si>
-    <t>2025년 5월 24일(토) 오후 6시</t>
-  </si>
-  <si>
-    <t>2025년 5월 30일(금) 오후 8시</t>
-  </si>
-  <si>
-    <t>2025년 5월 31일(토) 오후 6시</t>
-  </si>
-  <si>
-    <t>2025년 6월 7일(토) ~ 6월 8일(일) 토 오후 6시/일 오후 5시</t>
-  </si>
-  <si>
-    <t>2025년 7월 11일(금) ~ 7월 12일(토) 금 오후 7시 30분/토 오후 6시</t>
+    <t>2025년 6월 13일(금) ~ 6월 15일(일) 오후 1시</t>
+  </si>
+  <si>
+    <t>2025년 6월 15일(일) 오후 3시</t>
+  </si>
+  <si>
+    <t>2025년 6월 17일(화) 오후 8시</t>
+  </si>
+  <si>
+    <t>2025년 6월 18일(수) 오후 8시</t>
+  </si>
+  <si>
+    <t>2025년 6월 21일(토) 오후 7시</t>
+  </si>
+  <si>
+    <t>2025년 6월 22일(일) 오후 1시, 5시</t>
+  </si>
+  <si>
+    <t>2025년 6월 27일(금) 오후 8시</t>
+  </si>
+  <si>
+    <t>2025년 6월 28일(토) 오후 5시</t>
+  </si>
+  <si>
+    <t>2025년 7월 4일(금) ~ 7월 6일(일) 금 오후 7시 30분/토, 일 오후 2시</t>
+  </si>
+  <si>
+    <t>2025년 7월 13일(일) 오후 6시</t>
+  </si>
+  <si>
+    <t>2025년 8월 21일(목) 오후 8시</t>
+  </si>
+  <si>
+    <t>2025년 8월 22일(금) ~ 8월 24일(일) 금 오후 7시 30분/토 오후 6시/일 오후 2시</t>
+  </si>
+  <si>
+    <t>2025년 9월 5일(금) ~ 9월 6일(토) 오후 6시</t>
   </si>
   <si>
     <t>2025년 5월 23일(금) ~ 5월 24일(토) 금 오후 8시/토 오후 5시</t>
   </si>
   <si>
-    <t>2025년 7월 13일(일) 오후 6시</t>
-  </si>
-  <si>
-    <t>2025년 5월 24일(토) 오후 7시</t>
-  </si>
-  <si>
-    <t>2025년 6월 5일(목) 오후 8시</t>
-  </si>
-  <si>
-    <t>2025년 5월 25일(일) 오후 6시</t>
-  </si>
-  <si>
-    <t>2025년 8월 8일(금) ~ 8월 9일(토) 금 오후 7시 30분/토 오후 3시</t>
-  </si>
-  <si>
-    <t>2025년 5월 24일(토) ~ 5월 25일(일) 토 오후 5시/일 오후 4시</t>
-  </si>
-  <si>
-    <t>2025년 5월 25일(일) 오후 7시</t>
-  </si>
-  <si>
-    <t>2025년 5월 25일(일) 오후 5시</t>
-  </si>
-  <si>
-    <t>2025년 5월 27일(화) 오후 8시</t>
-  </si>
-  <si>
-    <t>2025년 5월 30일(금) 오후 7시 30분</t>
-  </si>
-  <si>
-    <t>2025년 5월 31일(토) 오후 3시</t>
-  </si>
-  <si>
-    <t>2025년 5월 31일(토) 오후 5시</t>
-  </si>
-  <si>
-    <t>2025년 6월 3일(화) 오후 2시, 5시</t>
-  </si>
-  <si>
-    <t>2025년 6월 14일(토) ~ 6월 15일(일) 토 오후 6시/일 오후 4시</t>
-  </si>
-  <si>
-    <t>2025년 6월 13일(금) ~ 6월 15일(일) 오후 1시</t>
-  </si>
-  <si>
-    <t>2025년 6월 15일(일) 오후 3시</t>
-  </si>
-  <si>
-    <t>2025년 6월 17일(화) 오후 8시</t>
-  </si>
-  <si>
-    <t>2025년 6월 18일(수) 오후 8시</t>
-  </si>
-  <si>
-    <t>2025년 6월 21일(토) 오후 7시</t>
-  </si>
-  <si>
-    <t>2025년 6월 22일(일) 오후 1시, 5시</t>
-  </si>
-  <si>
-    <t>2025년 6월 27일(금) 오후 8시</t>
-  </si>
-  <si>
-    <t>2025년 6월 28일(토) 오후 5시</t>
-  </si>
-  <si>
-    <t>2025년 7월 4일(금) ~ 7월 6일(일) 금 오후 7시 30분/토, 일 오후 2시</t>
-  </si>
-  <si>
-    <t>2025년 8월 21일(목) 오후 8시</t>
-  </si>
-  <si>
-    <t>2025년 8월 22일(금) ~ 8월 24일(일) 금 오후 7시 30분/토 오후 6시/일 오후 2시</t>
-  </si>
-  <si>
-    <t>2025년 9월 5일(금) ~ 9월 6일(토) 오후 6시</t>
-  </si>
-  <si>
     <t>2025년 5월 9일(금) ~ 5월 11일(일) 2025년 6월 13일(금) ~ 6월 15일(일) 금 오후 7시/토, 일 오후 5시</t>
   </si>
   <si>
@@ -3262,10 +3262,13 @@
     <t>2025년 5월 1일(목) ~ 2025년 7월 13일(일) 화,수,목 7시 30분/금 3시, 7시 30분/토 2시, 6시30분/일 3시 (월 공연없음, 일자별 상이)/단, 6/8 (일) 4시 공연</t>
   </si>
   <si>
+    <t>2025년 5월 7일(수) ~ 6월 8일(일) 수 오후 3시/목, 금 오후 7시 30분/토, 일 오후 4시 * 월, 화 공연없음</t>
+  </si>
+  <si>
     <t>2025년 4월 30일(수) ~ 7월 20일(일) 화~금 8시/토 3시, 7시/일,공휴일 2시, 6시 (월 공연 없음)</t>
   </si>
   <si>
-    <t>2025년 5월 7일(수) ~ 6월 8일(일) 수 오후 3시/목, 금 오후 7시 30분/토, 일 오후 4시 * 월, 화 공연없음</t>
+    <t>2025년 6월 17일(화) ~ 2025년 9월 21일(일) 화, 목 7시 30분/수, 금 2시 30분, 7시 30분/토 2시, 7시/일 3시 (월 공연없음, 일자별 상이)</t>
   </si>
   <si>
     <t>2025년 6월 18일(수) ~ 6월 29일(일) 화~금 오후 7시 30분/토, 일 오후 2시, 7시 * 6.19(목) &amp; 6.25(수) 2:30pm &amp; 7:30pm, 2회 공연 * 6.29(일) 2pm, 1회 공연</t>
@@ -3274,15 +3277,12 @@
     <t>2025년 6월 17일(화) ~ 9월 7일(일) 화,목,금 7시 30분/수,토,공휴일 3시, 7시 30분/일 3시 ( 월 공연 없음 )</t>
   </si>
   <si>
-    <t>2025년 6월 17일(화) ~ 2025년 9월 21일(일) 화, 목 7시 30분/수, 금 2시 30분, 7시 30분/토 2시, 7시/일 3시 (월 공연없음, 일자별 상이)</t>
+    <t>2025년 5월 29일(월) ~ 6월 15일(일) 화~금 오후 7시 30분/토 오후 2시, 7시/일,공휴일 오후 2시/월요일 공연 없음</t>
   </si>
   <si>
     <t>[5월 공연일정] &lt;평일&gt; 평일 : 2:30,4:45,7:00 *05/01, 02, 08 : 1:00/3:00/5:00/7:00 &lt;주말&gt; 토요일 : 12:00,2:00,4:00,6:00,8:00 일요일 : 1:00,3:00,5:00,7:00 *05/06 : 1:00/3:00/5:00/7:00 05/04, 05 : 12:00/2:00/4:00/6:00/8:00 [6월 공연일정] &lt;평일&gt; ﻿2:30,4:45,7:00 (6월10,17,24일은 7시회차 없음) &lt;주말&gt; 토 : 12:00, 2:00, 4:00, 6:00, 8:00 일 : 1:00, 3:00, 5:00, 7:00 *06/03 : 1:00,3:00,5:00,7:00 *06/06 : 12:00,2:00,4:00,6:00,8:00</t>
   </si>
   <si>
-    <t>2025년 5월 29일(월) ~ 6월 15일(일) 화~금 오후 7시 30분/토 오후 2시, 7시/일,공휴일 오후 2시/월요일 공연 없음</t>
-  </si>
-  <si>
     <t>2025년 9월 5일(금) ~ 9월 28일(일) 화~금 오후 7시 30분/토,일 오후 3시 (월 공연없음)</t>
   </si>
   <si>
@@ -3322,12 +3322,12 @@
     <t>2025년 7월 19일(토) 오후 5시 30분</t>
   </si>
   <si>
+    <t>2025년 6월 14일(토) 오후 4시</t>
+  </si>
+  <si>
     <t>2025년 11월 13일(목) ~ 11월 16일(일) 목,금 오후 7시 30분/토,일 오후 5시</t>
   </si>
   <si>
-    <t>2025년 6월 14일(토) 오후 4시</t>
-  </si>
-  <si>
     <t>2025년 7월 4일(금) ~ 7월 6일(일) 금 오후 7시 30분/토, 일 오후 1시, 6시</t>
   </si>
   <si>
@@ -3385,16 +3385,16 @@
     <t>2025년 6월 14일(토) ~ 8월 10일(일) * 얼리버드 티켓 관람기간 : 2025년 6월 14일(토) ~ 7월 13일(일) 〈운영시간〉 10:00~19:00 (입장마감 18:00) , 매주 월요일 휴관</t>
   </si>
   <si>
+    <t>2025년 5월 10일(토) ~ 9월 7일(일) - 화요일~토요일 오후 12시~9시 - 일요일·공휴일 오후 12시~6시 * 매주 월요일 휴관 * 입장 마감 : 전시 종료 40분 전</t>
+  </si>
+  <si>
+    <t>2025년 3월 20일(목) ~ 7월 13일(일) 〈운영시간〉 10:00 ~ 19:40 (입장마감 : 19:00)</t>
+  </si>
+  <si>
     <t>2025년 6월 11일(수) ~ 6월 13일(금) 1세션 : 11시 30분 ~ 12시 30분 2세션 : 14시 30분 ~ 15시 30분 3세션 : 17시 ~ 18시 4세션 : 20시 ~ 21시</t>
   </si>
   <si>
-    <t>2025년 5월 10일(토) ~ 9월 7일(일) - 화요일~토요일 오후 12시~9시 - 일요일·공휴일 오후 12시~6시 * 매주 월요일 휴관 * 입장 마감 : 전시 종료 40분 전</t>
-  </si>
-  <si>
     <t>2025년 6월 11일(수) ~ 6월 13일(금) 1세션 : 11시 30분 ~ 13시 2세션 : 14시 ~ 15시 30분 3세션 : 16시 30분 ~ 18시</t>
-  </si>
-  <si>
-    <t>2025년 3월 20일(목) ~ 7월 13일(일) 〈운영시간〉 10:00 ~ 19:40 (입장마감 : 19:00)</t>
   </si>
   <si>
     <t>2024년 10월 5일(토) ~ 2025년 8월 31일(일) 평일 10:00 ~ 19:00/주말 10:00 ~ 20:00 * 마감 1시간 전까지 입장 가능</t>
@@ -3847,7 +3847,7 @@
         <v>360</v>
       </c>
       <c r="F2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G2" t="s">
         <v>455</v>
@@ -3929,7 +3929,7 @@
         <v>362</v>
       </c>
       <c r="F4" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="G4" t="s">
         <v>457</v>
@@ -3938,13 +3938,13 @@
         <v>546</v>
       </c>
       <c r="I4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J4" t="s">
         <v>674</v>
       </c>
       <c r="K4" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>820</v>
@@ -3970,16 +3970,19 @@
         <v>363</v>
       </c>
       <c r="F5" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="G5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H5" t="s">
         <v>547</v>
       </c>
       <c r="I5" t="s">
-        <v>658</v>
+        <v>659</v>
+      </c>
+      <c r="J5" t="s">
+        <v>675</v>
       </c>
       <c r="K5" t="s">
         <v>779</v>
@@ -4008,19 +4011,19 @@
         <v>364</v>
       </c>
       <c r="F6" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="G6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H6" t="s">
         <v>548</v>
       </c>
       <c r="I6" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J6" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K6" t="s">
         <v>780</v>
@@ -4049,19 +4052,16 @@
         <v>365</v>
       </c>
       <c r="F7" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
       <c r="G7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H7" t="s">
         <v>549</v>
       </c>
       <c r="I7" t="s">
-        <v>660</v>
-      </c>
-      <c r="J7" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="K7" t="s">
         <v>781</v>
@@ -4090,7 +4090,7 @@
         <v>366</v>
       </c>
       <c r="F8" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G8" t="s">
         <v>460</v>
@@ -4105,7 +4105,7 @@
         <v>677</v>
       </c>
       <c r="K8" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>824</v>
@@ -4128,10 +4128,10 @@
         <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F9" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="G9" t="s">
         <v>461</v>
@@ -4140,13 +4140,13 @@
         <v>551</v>
       </c>
       <c r="I9" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J9" t="s">
         <v>678</v>
       </c>
       <c r="K9" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>825</v>
@@ -4169,10 +4169,10 @@
         <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F10" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="G10" t="s">
         <v>462</v>
@@ -4181,13 +4181,13 @@
         <v>552</v>
       </c>
       <c r="I10" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J10" t="s">
         <v>679</v>
       </c>
       <c r="K10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>826</v>
@@ -4210,10 +4210,10 @@
         <v>196</v>
       </c>
       <c r="E11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G11" t="s">
         <v>463</v>
@@ -4222,13 +4222,13 @@
         <v>553</v>
       </c>
       <c r="I11" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J11" t="s">
         <v>680</v>
       </c>
       <c r="K11" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>827</v>
@@ -4251,10 +4251,10 @@
         <v>197</v>
       </c>
       <c r="E12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F12" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G12" t="s">
         <v>464</v>
@@ -4263,7 +4263,7 @@
         <v>554</v>
       </c>
       <c r="I12" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J12" t="s">
         <v>681</v>
@@ -4295,7 +4295,7 @@
         <v>368</v>
       </c>
       <c r="F13" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="G13" t="s">
         <v>465</v>
@@ -4304,13 +4304,13 @@
         <v>555</v>
       </c>
       <c r="I13" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="J13" t="s">
         <v>682</v>
       </c>
       <c r="K13" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>829</v>
@@ -4336,7 +4336,7 @@
         <v>360</v>
       </c>
       <c r="F14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G14" t="s">
         <v>466</v>
@@ -4345,7 +4345,7 @@
         <v>556</v>
       </c>
       <c r="I14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J14" t="s">
         <v>683</v>
@@ -4374,10 +4374,10 @@
         <v>200</v>
       </c>
       <c r="E15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G15" t="s">
         <v>467</v>
@@ -4386,7 +4386,7 @@
         <v>557</v>
       </c>
       <c r="I15" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J15" t="s">
         <v>684</v>
@@ -4418,7 +4418,7 @@
         <v>369</v>
       </c>
       <c r="F16" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="G16" t="s">
         <v>468</v>
@@ -4427,13 +4427,13 @@
         <v>558</v>
       </c>
       <c r="I16" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J16" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="K16" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>832</v>
@@ -4462,19 +4462,19 @@
         <v>370</v>
       </c>
       <c r="G17" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H17" t="s">
         <v>559</v>
       </c>
       <c r="I17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K17" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>833</v>
@@ -4497,10 +4497,10 @@
         <v>203</v>
       </c>
       <c r="E18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F18" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
       <c r="G18" t="s">
         <v>469</v>
@@ -4509,13 +4509,13 @@
         <v>560</v>
       </c>
       <c r="I18" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="J18" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K18" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>834</v>
@@ -4538,10 +4538,10 @@
         <v>204</v>
       </c>
       <c r="E19" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F19" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G19" t="s">
         <v>470</v>
@@ -4550,10 +4550,10 @@
         <v>561</v>
       </c>
       <c r="I19" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K19" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>835</v>
@@ -4576,10 +4576,10 @@
         <v>205</v>
       </c>
       <c r="E20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G20" t="s">
         <v>471</v>
@@ -4588,10 +4588,10 @@
         <v>562</v>
       </c>
       <c r="I20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J20" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K20" t="s">
         <v>785</v>
@@ -4617,10 +4617,10 @@
         <v>206</v>
       </c>
       <c r="E21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G21" t="s">
         <v>472</v>
@@ -4629,13 +4629,13 @@
         <v>563</v>
       </c>
       <c r="I21" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="J21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K21" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>837</v>
@@ -4658,10 +4658,10 @@
         <v>207</v>
       </c>
       <c r="E22" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="F22" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="G22" t="s">
         <v>473</v>
@@ -4670,13 +4670,13 @@
         <v>564</v>
       </c>
       <c r="I22" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K22" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>838</v>
@@ -4699,10 +4699,10 @@
         <v>208</v>
       </c>
       <c r="E23" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="F23" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="G23" t="s">
         <v>474</v>
@@ -4714,10 +4714,10 @@
         <v>658</v>
       </c>
       <c r="J23" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K23" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>839</v>
@@ -4740,25 +4740,25 @@
         <v>209</v>
       </c>
       <c r="E24" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="F24" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="G24" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="H24" t="s">
         <v>566</v>
       </c>
       <c r="I24" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J24" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K24" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>840</v>
@@ -4781,28 +4781,31 @@
         <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="F25" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="G25" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H25" t="s">
         <v>567</v>
       </c>
       <c r="I25" t="s">
-        <v>658</v>
+        <v>659</v>
+      </c>
+      <c r="J25" t="s">
+        <v>692</v>
       </c>
       <c r="K25" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>841</v>
       </c>
       <c r="M25" t="s">
-        <v>998</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -4819,31 +4822,31 @@
         <v>211</v>
       </c>
       <c r="E26" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F26" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G26" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H26" t="s">
         <v>568</v>
       </c>
       <c r="I26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J26" t="s">
         <v>693</v>
       </c>
       <c r="K26" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>842</v>
       </c>
       <c r="M26" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -4860,31 +4863,31 @@
         <v>212</v>
       </c>
       <c r="E27" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F27" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G27" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="H27" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I27" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J27" t="s">
         <v>694</v>
       </c>
       <c r="K27" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>843</v>
       </c>
       <c r="M27" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -4901,10 +4904,10 @@
         <v>213</v>
       </c>
       <c r="E28" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F28" t="s">
-        <v>433</v>
+        <v>366</v>
       </c>
       <c r="G28" t="s">
         <v>477</v>
@@ -4913,19 +4916,19 @@
         <v>569</v>
       </c>
       <c r="I28" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J28" t="s">
         <v>695</v>
       </c>
       <c r="K28" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>844</v>
       </c>
       <c r="M28" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -4942,31 +4945,31 @@
         <v>214</v>
       </c>
       <c r="E29" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F29" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G29" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="H29" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="I29" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J29" t="s">
         <v>696</v>
       </c>
       <c r="K29" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>845</v>
       </c>
       <c r="M29" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -4983,7 +4986,7 @@
         <v>215</v>
       </c>
       <c r="E30" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F30" t="s">
         <v>385</v>
@@ -4992,7 +4995,7 @@
         <v>478</v>
       </c>
       <c r="H30" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="I30" t="s">
         <v>658</v>
@@ -5007,7 +5010,7 @@
         <v>846</v>
       </c>
       <c r="M30" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -5030,13 +5033,13 @@
         <v>379</v>
       </c>
       <c r="G31" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="H31" t="s">
         <v>561</v>
       </c>
       <c r="I31" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J31" t="s">
         <v>697</v>
@@ -5048,7 +5051,7 @@
         <v>847</v>
       </c>
       <c r="M31" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -5065,31 +5068,31 @@
         <v>217</v>
       </c>
       <c r="E32" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F32" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="G32" t="s">
         <v>479</v>
       </c>
       <c r="H32" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I32" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J32" t="s">
         <v>698</v>
       </c>
       <c r="K32" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>848</v>
       </c>
       <c r="M32" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -5112,25 +5115,25 @@
         <v>380</v>
       </c>
       <c r="G33" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="H33" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="I33" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J33" t="s">
         <v>699</v>
       </c>
       <c r="K33" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>849</v>
       </c>
       <c r="M33" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -5147,22 +5150,19 @@
         <v>219</v>
       </c>
       <c r="E34" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="F34" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="G34" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H34" t="s">
         <v>573</v>
       </c>
       <c r="I34" t="s">
-        <v>657</v>
-      </c>
-      <c r="J34" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
       <c r="K34" t="s">
         <v>778</v>
@@ -5171,7 +5171,7 @@
         <v>850</v>
       </c>
       <c r="M34" t="s">
-        <v>1022</v>
+        <v>999</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -5188,31 +5188,31 @@
         <v>220</v>
       </c>
       <c r="E35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G35" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="H35" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="I35" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J35" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K35" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>851</v>
       </c>
       <c r="M35" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -5235,25 +5235,25 @@
         <v>381</v>
       </c>
       <c r="G36" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="H36" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="I36" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J36" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K36" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>852</v>
       </c>
       <c r="M36" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -5270,31 +5270,31 @@
         <v>222</v>
       </c>
       <c r="E37" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="F37" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G37" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I37" t="s">
         <v>658</v>
       </c>
       <c r="J37" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K37" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>853</v>
       </c>
       <c r="M37" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -5311,31 +5311,31 @@
         <v>223</v>
       </c>
       <c r="E38" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F38" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G38" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="H38" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="I38" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J38" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K38" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>854</v>
       </c>
       <c r="M38" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -5352,25 +5352,25 @@
         <v>224</v>
       </c>
       <c r="E39" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="F39" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G39" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="H39" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="I39" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="J39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K39" t="s">
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>855</v>
@@ -5393,25 +5393,25 @@
         <v>225</v>
       </c>
       <c r="E40" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="F40" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G40" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H40" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="I40" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J40" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K40" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>856</v>
@@ -5434,25 +5434,25 @@
         <v>226</v>
       </c>
       <c r="E41" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="F41" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G41" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="H41" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="I41" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J41" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K41" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>857</v>
@@ -5475,31 +5475,28 @@
         <v>227</v>
       </c>
       <c r="E42" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F42" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G42" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="H42" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I42" t="s">
-        <v>660</v>
-      </c>
-      <c r="J42" t="s">
-        <v>708</v>
+        <v>657</v>
       </c>
       <c r="K42" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>858</v>
       </c>
       <c r="M42" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -5516,31 +5513,31 @@
         <v>228</v>
       </c>
       <c r="E43" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="F43" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G43" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="H43" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="I43" t="s">
         <v>659</v>
       </c>
       <c r="J43" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="K43" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>859</v>
       </c>
       <c r="M43" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -5557,22 +5554,22 @@
         <v>229</v>
       </c>
       <c r="E44" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="F44" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="G44" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H44" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I44" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J44" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="K44" t="s">
         <v>778</v>
@@ -5598,25 +5595,25 @@
         <v>230</v>
       </c>
       <c r="E45" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F45" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G45" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="H45" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="I45" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J45" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K45" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>861</v>
@@ -5639,22 +5636,22 @@
         <v>231</v>
       </c>
       <c r="E46" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F46" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G46" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="H46" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="I46" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J46" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="K46" t="s">
         <v>778</v>
@@ -5680,31 +5677,31 @@
         <v>232</v>
       </c>
       <c r="E47" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="F47" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="G47" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H47" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="I47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J47" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="K47" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>863</v>
       </c>
       <c r="M47" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -5721,31 +5718,31 @@
         <v>233</v>
       </c>
       <c r="E48" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F48" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G48" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="H48" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="I48" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J48" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="K48" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>864</v>
       </c>
       <c r="M48" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -5762,31 +5759,31 @@
         <v>234</v>
       </c>
       <c r="E49" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F49" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G49" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H49" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="I49" t="s">
         <v>658</v>
       </c>
       <c r="J49" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K49" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>865</v>
       </c>
       <c r="M49" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -5803,28 +5800,31 @@
         <v>235</v>
       </c>
       <c r="E50" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F50" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G50" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="H50" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I50" t="s">
-        <v>657</v>
+        <v>659</v>
+      </c>
+      <c r="J50" t="s">
+        <v>713</v>
       </c>
       <c r="K50" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>866</v>
       </c>
       <c r="M50" t="s">
-        <v>1021</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -5841,31 +5841,31 @@
         <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F51" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="G51" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="H51" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="I51" t="s">
         <v>660</v>
       </c>
       <c r="J51" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K51" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>867</v>
       </c>
       <c r="M51" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -5882,31 +5882,31 @@
         <v>237</v>
       </c>
       <c r="E52" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="F52" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="G52" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="H52" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="I52" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J52" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K52" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>868</v>
       </c>
       <c r="M52" t="s">
-        <v>1021</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -5923,25 +5923,25 @@
         <v>238</v>
       </c>
       <c r="E53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F53" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
       <c r="G53" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="H53" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="I53" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J53" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K53" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>869</v>
@@ -5964,31 +5964,31 @@
         <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="F54" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="G54" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="H54" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="I54" t="s">
         <v>658</v>
       </c>
       <c r="J54" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K54" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>870</v>
       </c>
       <c r="M54" t="s">
-        <v>1013</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -6005,31 +6005,31 @@
         <v>240</v>
       </c>
       <c r="E55" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="F55" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G55" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="H55" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="I55" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J55" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K55" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>871</v>
       </c>
       <c r="M55" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -6046,31 +6046,31 @@
         <v>241</v>
       </c>
       <c r="E56" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F56" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G56" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="H56" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="I56" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J56" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K56" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>872</v>
       </c>
       <c r="M56" t="s">
-        <v>1039</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -6087,31 +6087,31 @@
         <v>242</v>
       </c>
       <c r="E57" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F57" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="G57" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="H57" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="I57" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J57" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K57" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>873</v>
       </c>
       <c r="M57" t="s">
-        <v>1040</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -6128,31 +6128,31 @@
         <v>243</v>
       </c>
       <c r="E58" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="F58" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="G58" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="H58" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I58" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J58" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K58" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>874</v>
       </c>
       <c r="M58" t="s">
-        <v>1041</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -6169,31 +6169,31 @@
         <v>244</v>
       </c>
       <c r="E59" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="F59" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="G59" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="H59" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="I59" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J59" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K59" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>875</v>
       </c>
       <c r="M59" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -6210,31 +6210,31 @@
         <v>245</v>
       </c>
       <c r="E60" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="F60" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="G60" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H60" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I60" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="J60" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="K60" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>876</v>
       </c>
       <c r="M60" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -6251,31 +6251,31 @@
         <v>246</v>
       </c>
       <c r="E61" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F61" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G61" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="H61" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="I61" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J61" t="s">
         <v>724</v>
       </c>
       <c r="K61" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>877</v>
       </c>
       <c r="M61" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -6292,25 +6292,25 @@
         <v>247</v>
       </c>
       <c r="E62" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="F62" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="G62" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="H62" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="I62" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J62" t="s">
         <v>725</v>
       </c>
       <c r="K62" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>878</v>
@@ -6333,16 +6333,16 @@
         <v>248</v>
       </c>
       <c r="E63" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="F63" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="G63" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="H63" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="I63" t="s">
         <v>659</v>
@@ -6351,13 +6351,13 @@
         <v>726</v>
       </c>
       <c r="K63" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>879</v>
       </c>
       <c r="M63" t="s">
-        <v>1045</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -6374,31 +6374,31 @@
         <v>249</v>
       </c>
       <c r="E64" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F64" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G64" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="H64" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="I64" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J64" t="s">
         <v>727</v>
       </c>
       <c r="K64" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>880</v>
       </c>
       <c r="M64" t="s">
-        <v>1023</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -6415,31 +6415,31 @@
         <v>250</v>
       </c>
       <c r="E65" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F65" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G65" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="H65" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I65" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J65" t="s">
         <v>728</v>
       </c>
       <c r="K65" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>881</v>
       </c>
       <c r="M65" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -6456,19 +6456,19 @@
         <v>251</v>
       </c>
       <c r="E66" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="F66" t="s">
-        <v>363</v>
+        <v>436</v>
       </c>
       <c r="G66" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="H66" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="I66" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="J66" t="s">
         <v>729</v>
@@ -6480,7 +6480,7 @@
         <v>882</v>
       </c>
       <c r="M66" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -6497,22 +6497,22 @@
         <v>252</v>
       </c>
       <c r="E67" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F67" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G67" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H67" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="I67" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J67" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="K67" t="s">
         <v>778</v>
@@ -6521,7 +6521,7 @@
         <v>883</v>
       </c>
       <c r="M67" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -6538,31 +6538,31 @@
         <v>253</v>
       </c>
       <c r="E68" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F68" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G68" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="H68" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="I68" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J68" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K68" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>884</v>
       </c>
       <c r="M68" t="s">
-        <v>1038</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -6579,31 +6579,31 @@
         <v>254</v>
       </c>
       <c r="E69" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F69" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G69" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H69" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="I69" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J69" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="K69" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>885</v>
       </c>
       <c r="M69" t="s">
-        <v>1043</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -6620,22 +6620,22 @@
         <v>255</v>
       </c>
       <c r="E70" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F70" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="G70" t="s">
-        <v>462</v>
+        <v>500</v>
       </c>
       <c r="H70" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="I70" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J70" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="K70" t="s">
         <v>778</v>
@@ -6661,25 +6661,25 @@
         <v>256</v>
       </c>
       <c r="E71" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F71" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G71" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H71" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="I71" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J71" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K71" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>887</v>
@@ -6702,25 +6702,22 @@
         <v>257</v>
       </c>
       <c r="E72" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="F72" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="G72" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="H72" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="I72" t="s">
-        <v>658</v>
-      </c>
-      <c r="J72" t="s">
-        <v>734</v>
+        <v>657</v>
       </c>
       <c r="K72" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>888</v>
@@ -6743,19 +6740,22 @@
         <v>258</v>
       </c>
       <c r="E73" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="F73" t="s">
-        <v>435</v>
+        <v>369</v>
       </c>
       <c r="G73" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H73" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="I73" t="s">
-        <v>657</v>
+        <v>659</v>
+      </c>
+      <c r="J73" t="s">
+        <v>733</v>
       </c>
       <c r="K73" t="s">
         <v>788</v>
@@ -6764,7 +6764,7 @@
         <v>889</v>
       </c>
       <c r="M73" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -6781,31 +6781,31 @@
         <v>259</v>
       </c>
       <c r="E74" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="F74" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="G74" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="H74" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="I74" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J74" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K74" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>890</v>
       </c>
       <c r="M74" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -6822,31 +6822,31 @@
         <v>260</v>
       </c>
       <c r="E75" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F75" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G75" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H75" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I75" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="J75" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K75" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>891</v>
       </c>
       <c r="M75" t="s">
-        <v>1010</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -6863,31 +6863,31 @@
         <v>261</v>
       </c>
       <c r="E76" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F76" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="G76" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="H76" t="s">
         <v>588</v>
       </c>
       <c r="I76" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J76" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="K76" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>892</v>
       </c>
       <c r="M76" t="s">
-        <v>1053</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -6904,31 +6904,31 @@
         <v>262</v>
       </c>
       <c r="E77" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F77" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G77" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="H77" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I77" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J77" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="K77" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>893</v>
       </c>
       <c r="M77" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -6945,31 +6945,31 @@
         <v>263</v>
       </c>
       <c r="E78" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F78" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G78" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H78" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="I78" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="J78" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="K78" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>894</v>
       </c>
       <c r="M78" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -6986,31 +6986,31 @@
         <v>264</v>
       </c>
       <c r="E79" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F79" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G79" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H79" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="I79" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J79" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="K79" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>895</v>
       </c>
       <c r="M79" t="s">
-        <v>1047</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -7027,31 +7027,31 @@
         <v>265</v>
       </c>
       <c r="E80" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F80" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G80" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="H80" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="I80" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="J80" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="K80" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>896</v>
       </c>
       <c r="M80" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -7068,31 +7068,31 @@
         <v>266</v>
       </c>
       <c r="E81" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F81" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G81" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="H81" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="I81" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J81" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="K81" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>897</v>
       </c>
       <c r="M81" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -7109,31 +7109,31 @@
         <v>267</v>
       </c>
       <c r="E82" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F82" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="G82" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="H82" t="s">
-        <v>547</v>
+        <v>584</v>
       </c>
       <c r="I82" t="s">
         <v>660</v>
       </c>
       <c r="J82" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="K82" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>898</v>
       </c>
       <c r="M82" t="s">
-        <v>1023</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -7150,31 +7150,31 @@
         <v>268</v>
       </c>
       <c r="E83" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F83" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G83" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H83" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="I83" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="J83" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="K83" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>899</v>
       </c>
       <c r="M83" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -7191,31 +7191,28 @@
         <v>269</v>
       </c>
       <c r="E84" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F84" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="G84" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H84" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="I84" t="s">
-        <v>658</v>
-      </c>
-      <c r="J84" t="s">
-        <v>738</v>
+        <v>663</v>
       </c>
       <c r="K84" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>900</v>
       </c>
       <c r="M84" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -7232,31 +7229,31 @@
         <v>270</v>
       </c>
       <c r="E85" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="F85" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="G85" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="H85" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="I85" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J85" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="K85" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>901</v>
       </c>
       <c r="M85" t="s">
-        <v>1049</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -7273,28 +7270,31 @@
         <v>271</v>
       </c>
       <c r="E86" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F86" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="G86" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="H86" t="s">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="I86" t="s">
-        <v>661</v>
+        <v>659</v>
+      </c>
+      <c r="J86" t="s">
+        <v>744</v>
       </c>
       <c r="K86" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>902</v>
       </c>
       <c r="M86" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -7311,31 +7311,31 @@
         <v>272</v>
       </c>
       <c r="E87" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="F87" t="s">
         <v>388</v>
       </c>
       <c r="G87" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H87" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="I87" t="s">
         <v>658</v>
       </c>
       <c r="J87" t="s">
-        <v>687</v>
+        <v>725</v>
       </c>
       <c r="K87" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>903</v>
       </c>
       <c r="M87" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -7358,25 +7358,25 @@
         <v>388</v>
       </c>
       <c r="G88" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="H88" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="I88" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J88" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K88" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>904</v>
       </c>
       <c r="M88" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -7393,31 +7393,28 @@
         <v>274</v>
       </c>
       <c r="E89" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="F89" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="G89" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H89" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="I89" t="s">
-        <v>660</v>
-      </c>
-      <c r="J89" t="s">
-        <v>747</v>
+        <v>657</v>
       </c>
       <c r="K89" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>905</v>
       </c>
       <c r="M89" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -7434,31 +7431,28 @@
         <v>275</v>
       </c>
       <c r="E90" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="F90" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G90" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H90" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="I90" t="s">
-        <v>660</v>
-      </c>
-      <c r="J90" t="s">
-        <v>748</v>
+        <v>659</v>
       </c>
       <c r="K90" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>906</v>
       </c>
       <c r="M90" t="s">
-        <v>1060</v>
+        <v>998</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -7475,31 +7469,31 @@
         <v>276</v>
       </c>
       <c r="E91" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="F91" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="G91" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="H91" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="I91" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="J91" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="K91" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>907</v>
       </c>
       <c r="M91" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -7516,28 +7510,31 @@
         <v>277</v>
       </c>
       <c r="E92" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F92" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G92" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="H92" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="I92" t="s">
-        <v>657</v>
+        <v>659</v>
+      </c>
+      <c r="J92" t="s">
+        <v>747</v>
       </c>
       <c r="K92" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>908</v>
       </c>
       <c r="M92" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -7554,28 +7551,31 @@
         <v>278</v>
       </c>
       <c r="E93" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="F93" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G93" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="H93" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="I93" t="s">
-        <v>660</v>
+        <v>659</v>
+      </c>
+      <c r="J93" t="s">
+        <v>748</v>
       </c>
       <c r="K93" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>909</v>
       </c>
       <c r="M93" t="s">
-        <v>1001</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -7592,31 +7592,28 @@
         <v>279</v>
       </c>
       <c r="E94" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="F94" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="G94" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H94" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="I94" t="s">
-        <v>660</v>
-      </c>
-      <c r="J94" t="s">
-        <v>750</v>
+        <v>661</v>
       </c>
       <c r="K94" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>910</v>
       </c>
       <c r="M94" t="s">
-        <v>1010</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -7633,31 +7630,31 @@
         <v>280</v>
       </c>
       <c r="E95" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F95" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G95" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="H95" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
       <c r="I95" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J95" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="K95" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>911</v>
       </c>
       <c r="M95" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -7674,31 +7671,31 @@
         <v>281</v>
       </c>
       <c r="E96" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F96" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="G96" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="H96" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="I96" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="J96" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="K96" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>912</v>
       </c>
       <c r="M96" t="s">
-        <v>1064</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -7715,28 +7712,31 @@
         <v>282</v>
       </c>
       <c r="E97" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F97" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="G97" t="s">
         <v>510</v>
       </c>
       <c r="H97" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="I97" t="s">
-        <v>662</v>
+        <v>663</v>
+      </c>
+      <c r="J97" t="s">
+        <v>751</v>
       </c>
       <c r="K97" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>913</v>
       </c>
       <c r="M97" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -7753,31 +7753,28 @@
         <v>283</v>
       </c>
       <c r="E98" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F98" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G98" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="H98" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="I98" t="s">
-        <v>660</v>
-      </c>
-      <c r="J98" t="s">
-        <v>753</v>
+        <v>659</v>
       </c>
       <c r="K98" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>914</v>
       </c>
       <c r="M98" t="s">
-        <v>1055</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -7794,31 +7791,31 @@
         <v>284</v>
       </c>
       <c r="E99" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="F99" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="G99" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H99" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="I99" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J99" t="s">
-        <v>712</v>
+        <v>752</v>
       </c>
       <c r="K99" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>915</v>
       </c>
       <c r="M99" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -7835,25 +7832,25 @@
         <v>285</v>
       </c>
       <c r="E100" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="F100" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G100" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H100" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="I100" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="J100" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K100" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>916</v>
@@ -7876,22 +7873,25 @@
         <v>286</v>
       </c>
       <c r="E101" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="F101" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="G101" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H101" t="s">
-        <v>605</v>
+        <v>567</v>
       </c>
       <c r="I101" t="s">
-        <v>660</v>
+        <v>659</v>
+      </c>
+      <c r="J101" t="s">
+        <v>754</v>
       </c>
       <c r="K101" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>917</v>
@@ -7914,31 +7914,31 @@
         <v>287</v>
       </c>
       <c r="E102" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="F102" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="G102" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="H102" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="I102" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="J102" t="s">
         <v>755</v>
       </c>
       <c r="K102" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>918</v>
       </c>
       <c r="M102" t="s">
-        <v>1012</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -7955,31 +7955,31 @@
         <v>288</v>
       </c>
       <c r="E103" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F103" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="G103" t="s">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="H103" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="I103" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="J103" t="s">
         <v>756</v>
       </c>
       <c r="K103" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>919</v>
       </c>
       <c r="M103" t="s">
-        <v>1068</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -7996,25 +7996,25 @@
         <v>289</v>
       </c>
       <c r="E104" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="F104" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="G104" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="H104" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="I104" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="J104" t="s">
         <v>757</v>
       </c>
       <c r="K104" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>920</v>
@@ -8037,31 +8037,31 @@
         <v>290</v>
       </c>
       <c r="E105" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="F105" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="G105" t="s">
-        <v>480</v>
+        <v>514</v>
       </c>
       <c r="H105" t="s">
-        <v>547</v>
+        <v>588</v>
       </c>
       <c r="I105" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="J105" t="s">
         <v>758</v>
       </c>
       <c r="K105" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>921</v>
       </c>
       <c r="M105" t="s">
-        <v>1070</v>
+        <v>999</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -8078,31 +8078,31 @@
         <v>291</v>
       </c>
       <c r="E106" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F106" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="G106" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="H106" t="s">
         <v>606</v>
       </c>
       <c r="I106" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J106" t="s">
         <v>759</v>
       </c>
       <c r="K106" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>922</v>
       </c>
       <c r="M106" t="s">
-        <v>1015</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -8119,25 +8119,25 @@
         <v>292</v>
       </c>
       <c r="E107" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="F107" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="G107" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="H107" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="I107" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J107" t="s">
         <v>760</v>
       </c>
       <c r="K107" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>923</v>
@@ -8160,25 +8160,25 @@
         <v>293</v>
       </c>
       <c r="E108" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="F108" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="G108" t="s">
-        <v>515</v>
+        <v>467</v>
       </c>
       <c r="H108" t="s">
-        <v>607</v>
+        <v>561</v>
       </c>
       <c r="I108" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J108" t="s">
         <v>761</v>
       </c>
       <c r="K108" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>924</v>
@@ -8201,31 +8201,31 @@
         <v>294</v>
       </c>
       <c r="E109" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="F109" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="G109" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="H109" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="I109" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J109" t="s">
         <v>762</v>
       </c>
       <c r="K109" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>925</v>
       </c>
       <c r="M109" t="s">
-        <v>1073</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -8242,31 +8242,31 @@
         <v>295</v>
       </c>
       <c r="E110" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="F110" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="G110" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="H110" t="s">
         <v>561</v>
       </c>
       <c r="I110" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J110" t="s">
         <v>763</v>
       </c>
       <c r="K110" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>926</v>
       </c>
       <c r="M110" t="s">
-        <v>1074</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -8283,31 +8283,31 @@
         <v>296</v>
       </c>
       <c r="E111" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F111" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="G111" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="H111" t="s">
-        <v>572</v>
+        <v>607</v>
       </c>
       <c r="I111" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="J111" t="s">
         <v>764</v>
       </c>
       <c r="K111" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>927</v>
       </c>
       <c r="M111" t="s">
-        <v>1008</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -8324,31 +8324,31 @@
         <v>297</v>
       </c>
       <c r="E112" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="F112" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="G112" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="H112" t="s">
-        <v>561</v>
+        <v>608</v>
       </c>
       <c r="I112" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J112" t="s">
         <v>765</v>
       </c>
       <c r="K112" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>928</v>
       </c>
       <c r="M112" t="s">
-        <v>1029</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -8365,25 +8365,25 @@
         <v>298</v>
       </c>
       <c r="E113" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="F113" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="G113" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="H113" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I113" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J113" t="s">
         <v>766</v>
       </c>
       <c r="K113" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="L113" s="2" t="s">
         <v>929</v>
@@ -8406,25 +8406,22 @@
         <v>299</v>
       </c>
       <c r="E114" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F114" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="G114" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="H114" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="I114" t="s">
-        <v>659</v>
-      </c>
-      <c r="J114" t="s">
-        <v>767</v>
+        <v>666</v>
       </c>
       <c r="K114" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>930</v>
@@ -8447,22 +8444,22 @@
         <v>300</v>
       </c>
       <c r="E115" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F115" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G115" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H115" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="I115" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="K115" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>931</v>
@@ -8485,28 +8482,28 @@
         <v>301</v>
       </c>
       <c r="E116" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="F116" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G116" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="H116" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I116" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K116" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>932</v>
       </c>
       <c r="M116" t="s">
-        <v>1078</v>
+        <v>995</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -8523,19 +8520,22 @@
         <v>302</v>
       </c>
       <c r="E117" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F117" t="s">
-        <v>434</v>
+        <v>369</v>
       </c>
       <c r="G117" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="H117" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="I117" t="s">
-        <v>660</v>
+        <v>659</v>
+      </c>
+      <c r="J117" t="s">
+        <v>767</v>
       </c>
       <c r="K117" t="s">
         <v>781</v>
@@ -8544,7 +8544,7 @@
         <v>933</v>
       </c>
       <c r="M117" t="s">
-        <v>996</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -8564,13 +8564,13 @@
         <v>401</v>
       </c>
       <c r="F118" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G118" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H118" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="I118" t="s">
         <v>658</v>
@@ -8599,7 +8599,7 @@
         <v>304</v>
       </c>
       <c r="E119" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F119" t="s">
         <v>440</v>
@@ -8643,7 +8643,7 @@
         <v>402</v>
       </c>
       <c r="F120" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G120" t="s">
         <v>517</v>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="B121" t="s">
         <v>132</v>
@@ -8684,7 +8684,7 @@
         <v>403</v>
       </c>
       <c r="F121" t="s">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="G121" t="s">
         <v>518</v>
@@ -8693,10 +8693,7 @@
         <v>615</v>
       </c>
       <c r="I121" t="s">
-        <v>658</v>
-      </c>
-      <c r="J121" t="s">
-        <v>770</v>
+        <v>667</v>
       </c>
       <c r="K121" t="s">
         <v>799</v>
@@ -8710,7 +8707,7 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B122" t="s">
         <v>133</v>
@@ -8725,7 +8722,7 @@
         <v>404</v>
       </c>
       <c r="F122" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="G122" t="s">
         <v>519</v>
@@ -8734,7 +8731,10 @@
         <v>616</v>
       </c>
       <c r="I122" t="s">
-        <v>667</v>
+        <v>658</v>
+      </c>
+      <c r="J122" t="s">
+        <v>770</v>
       </c>
       <c r="K122" t="s">
         <v>800</v>
@@ -8760,19 +8760,22 @@
         <v>308</v>
       </c>
       <c r="E123" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F123" t="s">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="G123" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H123" t="s">
         <v>617</v>
       </c>
       <c r="I123" t="s">
-        <v>658</v>
+        <v>667</v>
+      </c>
+      <c r="J123" t="s">
+        <v>771</v>
       </c>
       <c r="K123" t="s">
         <v>801</v>
@@ -8801,22 +8804,19 @@
         <v>395</v>
       </c>
       <c r="F124" t="s">
-        <v>441</v>
+        <v>384</v>
       </c>
       <c r="G124" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H124" t="s">
         <v>618</v>
       </c>
       <c r="I124" t="s">
-        <v>667</v>
-      </c>
-      <c r="J124" t="s">
-        <v>771</v>
+        <v>658</v>
       </c>
       <c r="K124" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>940</v>
@@ -8839,7 +8839,7 @@
         <v>310</v>
       </c>
       <c r="E125" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F125" t="s">
         <v>442</v>
@@ -8857,7 +8857,7 @@
         <v>772</v>
       </c>
       <c r="K125" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>941</v>
@@ -8868,7 +8868,7 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B126" t="s">
         <v>137</v>
@@ -8883,7 +8883,7 @@
         <v>405</v>
       </c>
       <c r="F126" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="G126" t="s">
         <v>522</v>
@@ -8892,10 +8892,10 @@
         <v>620</v>
       </c>
       <c r="I126" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="K126" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>942</v>
@@ -8906,7 +8906,7 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="B127" t="s">
         <v>138</v>
@@ -8921,7 +8921,7 @@
         <v>406</v>
       </c>
       <c r="F127" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="G127" t="s">
         <v>523</v>
@@ -8930,10 +8930,10 @@
         <v>621</v>
       </c>
       <c r="I127" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="K127" t="s">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>943</v>
@@ -8962,7 +8962,7 @@
         <v>443</v>
       </c>
       <c r="G128" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H128" t="s">
         <v>622</v>
@@ -9006,10 +9006,10 @@
         <v>623</v>
       </c>
       <c r="I129" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K129" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>945</v>
@@ -9032,13 +9032,13 @@
         <v>315</v>
       </c>
       <c r="E130" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F130" t="s">
         <v>382</v>
       </c>
       <c r="G130" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H130" t="s">
         <v>624</v>
@@ -9047,7 +9047,7 @@
         <v>667</v>
       </c>
       <c r="K130" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>946</v>
@@ -9073,7 +9073,7 @@
         <v>379</v>
       </c>
       <c r="F131" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G131" t="s">
         <v>525</v>
@@ -9111,19 +9111,19 @@
         <v>408</v>
       </c>
       <c r="F132" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G132" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H132" t="s">
         <v>626</v>
       </c>
       <c r="I132" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K132" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>948</v>
@@ -9228,7 +9228,7 @@
         <v>444</v>
       </c>
       <c r="G135" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H135" t="s">
         <v>629</v>
@@ -9237,7 +9237,7 @@
         <v>657</v>
       </c>
       <c r="K135" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>951</v>
@@ -9266,7 +9266,7 @@
         <v>445</v>
       </c>
       <c r="G136" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H136" t="s">
         <v>624</v>
@@ -9275,7 +9275,7 @@
         <v>667</v>
       </c>
       <c r="K136" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>952</v>
@@ -9336,31 +9336,31 @@
         <v>323</v>
       </c>
       <c r="E138" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F138" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G138" t="s">
         <v>529</v>
       </c>
       <c r="H138" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="I138" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="J138" t="s">
         <v>773</v>
       </c>
       <c r="K138" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="L138" s="2" t="s">
         <v>954</v>
       </c>
       <c r="M138" t="s">
-        <v>1099</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -9377,31 +9377,31 @@
         <v>324</v>
       </c>
       <c r="E139" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F139" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G139" t="s">
         <v>530</v>
       </c>
       <c r="H139" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="I139" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="J139" t="s">
         <v>774</v>
       </c>
       <c r="K139" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>955</v>
       </c>
       <c r="M139" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -9424,13 +9424,13 @@
         <v>414</v>
       </c>
       <c r="G140" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H140" t="s">
         <v>631</v>
       </c>
       <c r="I140" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J140" t="s">
         <v>775</v>
@@ -9456,31 +9456,31 @@
         <v>326</v>
       </c>
       <c r="E141" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F141" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G141" t="s">
         <v>531</v>
       </c>
       <c r="H141" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="I141" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J141" t="s">
         <v>776</v>
       </c>
       <c r="K141" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="L141" s="2" t="s">
         <v>957</v>
       </c>
       <c r="M141" t="s">
-        <v>1054</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -9509,10 +9509,10 @@
         <v>632</v>
       </c>
       <c r="I142" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K142" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="L142" s="2" t="s">
         <v>958</v>
@@ -9535,22 +9535,22 @@
         <v>328</v>
       </c>
       <c r="E143" t="s">
-        <v>415</v>
+        <v>366</v>
       </c>
       <c r="F143" t="s">
-        <v>446</v>
+        <v>366</v>
       </c>
       <c r="G143" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="H143" t="s">
         <v>633</v>
       </c>
       <c r="I143" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="K143" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
       <c r="L143" s="2" t="s">
         <v>959</v>
@@ -9573,22 +9573,22 @@
         <v>329</v>
       </c>
       <c r="E144" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="F144" t="s">
-        <v>362</v>
+        <v>446</v>
       </c>
       <c r="G144" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="H144" t="s">
         <v>634</v>
       </c>
       <c r="I144" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="K144" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>960</v>
@@ -9614,10 +9614,10 @@
         <v>360</v>
       </c>
       <c r="F145" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G145" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H145" t="s">
         <v>635</v>
@@ -9655,7 +9655,7 @@
         <v>446</v>
       </c>
       <c r="G146" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H146" t="s">
         <v>636</v>
@@ -9693,7 +9693,7 @@
         <v>447</v>
       </c>
       <c r="G147" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H147" t="s">
         <v>637</v>
@@ -9702,7 +9702,7 @@
         <v>658</v>
       </c>
       <c r="K147" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>963</v>
@@ -9737,7 +9737,7 @@
         <v>638</v>
       </c>
       <c r="I148" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K148" t="s">
         <v>809</v>
@@ -9763,10 +9763,10 @@
         <v>334</v>
       </c>
       <c r="E149" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F149" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G149" t="s">
         <v>535</v>
@@ -9778,7 +9778,7 @@
         <v>658</v>
       </c>
       <c r="K149" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="L149" s="2" t="s">
         <v>965</v>
@@ -9807,7 +9807,7 @@
         <v>419</v>
       </c>
       <c r="G150" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H150" t="s">
         <v>639</v>
@@ -9848,13 +9848,13 @@
         <v>535</v>
       </c>
       <c r="H151" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I151" t="s">
         <v>671</v>
       </c>
       <c r="K151" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>967</v>
@@ -9921,7 +9921,7 @@
         <v>448</v>
       </c>
       <c r="G153" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H153" t="s">
         <v>637</v>
@@ -9997,7 +9997,7 @@
         <v>421</v>
       </c>
       <c r="G155" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H155" t="s">
         <v>639</v>
@@ -10149,7 +10149,7 @@
         <v>451</v>
       </c>
       <c r="G159" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H159" t="s">
         <v>637</v>
@@ -10187,7 +10187,7 @@
         <v>447</v>
       </c>
       <c r="G160" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H160" t="s">
         <v>642</v>
@@ -10272,7 +10272,7 @@
         <v>658</v>
       </c>
       <c r="K162" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>978</v>
@@ -10307,10 +10307,10 @@
         <v>645</v>
       </c>
       <c r="I163" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K163" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L163" s="2" t="s">
         <v>979</v>
@@ -10333,10 +10333,10 @@
         <v>349</v>
       </c>
       <c r="E164" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F164" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G164" t="s">
         <v>536</v>
@@ -10345,7 +10345,7 @@
         <v>646</v>
       </c>
       <c r="I164" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K164" t="s">
         <v>777</v>
@@ -10371,10 +10371,10 @@
         <v>350</v>
       </c>
       <c r="E165" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="F165" t="s">
-        <v>380</v>
+        <v>442</v>
       </c>
       <c r="G165" t="s">
         <v>537</v>
@@ -10383,10 +10383,10 @@
         <v>647</v>
       </c>
       <c r="I165" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="K165" t="s">
-        <v>796</v>
+        <v>817</v>
       </c>
       <c r="L165" s="2" t="s">
         <v>981</v>
@@ -10409,10 +10409,10 @@
         <v>351</v>
       </c>
       <c r="E166" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F166" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="G166" t="s">
         <v>538</v>
@@ -10421,10 +10421,10 @@
         <v>648</v>
       </c>
       <c r="I166" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="K166" t="s">
-        <v>817</v>
+        <v>777</v>
       </c>
       <c r="L166" s="2" t="s">
         <v>982</v>
@@ -10447,22 +10447,22 @@
         <v>352</v>
       </c>
       <c r="E167" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="F167" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G167" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H167" t="s">
         <v>649</v>
       </c>
       <c r="I167" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="K167" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="L167" s="2" t="s">
         <v>983</v>
@@ -10485,10 +10485,10 @@
         <v>353</v>
       </c>
       <c r="E168" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="F168" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="G168" t="s">
         <v>539</v>
@@ -10497,10 +10497,10 @@
         <v>650</v>
       </c>
       <c r="I168" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="K168" t="s">
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="L168" s="2" t="s">
         <v>984</v>
@@ -10535,7 +10535,7 @@
         <v>651</v>
       </c>
       <c r="I169" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K169" t="s">
         <v>777</v>
@@ -10564,7 +10564,7 @@
         <v>430</v>
       </c>
       <c r="F170" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G170" t="s">
         <v>541</v>
@@ -10602,16 +10602,16 @@
         <v>428</v>
       </c>
       <c r="F171" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G171" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H171" t="s">
         <v>653</v>
       </c>
       <c r="I171" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K171" t="s">
         <v>777</v>
@@ -10649,7 +10649,7 @@
         <v>654</v>
       </c>
       <c r="I172" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K172" t="s">
         <v>777</v>
@@ -10687,7 +10687,7 @@
         <v>655</v>
       </c>
       <c r="I173" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K173" t="s">
         <v>777</v>
@@ -10725,7 +10725,7 @@
         <v>656</v>
       </c>
       <c r="I174" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K174" t="s">
         <v>777</v>
